--- a/src/main/resources/static/excel/download/코웨이 청구 상세내역.xlsx
+++ b/src/main/resources/static/excel/download/코웨이 청구 상세내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\cursor_project\sap-rfc-demo\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDFBD77-73CB-40BE-8FEC-997DA04081A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB401B-90A4-46AE-BDA9-8461B691A00D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
   <si>
     <t>사업자명</t>
   </si>
@@ -250,7 +250,7 @@
   </si>
   <si>
     <t>코웨이㈜
-202501 대금 청구서</t>
+2025년 01월 대금 청구서</t>
   </si>
   <si>
     <t>2025.01.31</t>
@@ -265,19 +265,19 @@
     <t>정수기</t>
   </si>
   <si>
-    <t>2021-11-24</t>
+    <t>2021.11.24</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>0000-00-00</t>
+    <t>0000.00.00</t>
   </si>
   <si>
-    <t>202412</t>
+    <t>2024.12</t>
   </si>
   <si>
-    <t>202501</t>
+    <t>2025.01</t>
   </si>
   <si>
     <t>20ABN2108210</t>
@@ -289,7 +289,7 @@
     <t>20ABN2272901</t>
   </si>
   <si>
-    <t>2022-08-30</t>
+    <t>2022.08.30</t>
   </si>
   <si>
     <t>20ABN2272902</t>
@@ -301,7 +301,7 @@
     <t>20ABN2277348</t>
   </si>
   <si>
-    <t>2022-12-08</t>
+    <t>2022.12.08</t>
   </si>
   <si>
     <t>20ABN2277349</t>
@@ -313,7 +313,7 @@
     <t>20ABN2325560</t>
   </si>
   <si>
-    <t>2023-09-19</t>
+    <t>2023.09.19</t>
   </si>
   <si>
     <t>20ABN2325561</t>
@@ -328,13 +328,13 @@
     <t>000000000000112920</t>
   </si>
   <si>
-    <t>2024-07-15</t>
+    <t>2024.07.15</t>
   </si>
   <si>
     <t>20ABN2417373</t>
   </si>
   <si>
-    <t>2024-08-02</t>
+    <t>2024.08.02</t>
   </si>
   <si>
     <t/>
@@ -348,7 +348,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -473,6 +473,16 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -500,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -578,35 +588,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,18 +710,6 @@
     <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,10 +748,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyNumberFormat="true" applyBorder="true">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyNumberFormat="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyNumberFormat="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ994"/>
+  <dimension ref="A1:AJ993"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1127,10 +1109,10 @@
     </row>
     <row r="2" spans="1:36" ht="6.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1165,10 +1147,10 @@
     </row>
     <row r="3" spans="1:36" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1203,10 +1185,10 @@
     </row>
     <row r="4" spans="1:36" ht="18.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1241,10 +1223,10 @@
     </row>
     <row r="5" spans="1:36" ht="18.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1279,22 +1261,22 @@
     </row>
     <row r="6" spans="1:36" ht="18.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="4"/>
@@ -1319,20 +1301,20 @@
     </row>
     <row r="7" spans="1:36" ht="18.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="4"/>
@@ -1357,20 +1339,20 @@
     </row>
     <row r="8" spans="1:36" ht="18.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="4"/>
@@ -1395,20 +1377,20 @@
     </row>
     <row r="9" spans="1:36" ht="18.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="4"/>
@@ -1433,20 +1415,20 @@
     </row>
     <row r="10" spans="1:36" ht="18" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="4"/>
@@ -1512,21 +1494,21 @@
       <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="14"/>
@@ -1554,21 +1536,21 @@
       <c r="B13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="17"/>
@@ -1936,11 +1918,11 @@
       <c r="B22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="23" t="s">
         <v>10</v>
       </c>
@@ -1980,9 +1962,9 @@
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="23" t="s">
         <v>13</v>
       </c>
@@ -2022,9 +2004,9 @@
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="23"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -2060,9 +2042,9 @@
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="23"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -2203,7 +2185,7 @@
       <c r="AI27" s="4"/>
       <c r="AJ27" s="11"/>
     </row>
-    <row r="28" spans="1:36" ht="27" customHeight="1">
+    <row r="28" spans="1:36" ht="33.75" customHeight="true">
       <c r="A28" s="8"/>
       <c r="B28" t="s" s="58">
         <v>60</v>
@@ -2229,26 +2211,26 @@
       <c r="I28" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J28" t="n" s="59">
+      <c r="J28" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K28" t="n" s="59">
+      <c r="K28" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L28" t="n" s="59">
+      <c r="L28" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M28" t="n" s="59">
+      <c r="M28" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N28" t="n" s="59">
+      <c r="N28" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O28" t="n" s="59">
+      <c r="O28" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P28" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P28" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="4"/>
@@ -2271,7 +2253,7 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="11"/>
     </row>
-    <row r="29" spans="1:36" ht="48" customHeight="1">
+    <row r="29" spans="1:36" ht="33.75" customHeight="true">
       <c r="A29" s="8"/>
       <c r="B29" t="s" s="58">
         <v>68</v>
@@ -2297,26 +2279,26 @@
       <c r="I29" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J29" t="n" s="59">
+      <c r="J29" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K29" t="n" s="59">
+      <c r="K29" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L29" t="n" s="59">
+      <c r="L29" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M29" t="n" s="59">
+      <c r="M29" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N29" t="n" s="59">
+      <c r="N29" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O29" t="n" s="59">
+      <c r="O29" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P29" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P29" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="4"/>
@@ -2339,7 +2321,7 @@
       <c r="AI29" s="4"/>
       <c r="AJ29" s="11"/>
     </row>
-    <row r="30" spans="1:36" ht="27" customHeight="1">
+    <row r="30" spans="1:36" ht="33.75" customHeight="true">
       <c r="A30" s="8"/>
       <c r="B30" t="s" s="58">
         <v>69</v>
@@ -2365,26 +2347,26 @@
       <c r="I30" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J30" t="n" s="59">
+      <c r="J30" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K30" t="n" s="59">
+      <c r="K30" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L30" t="n" s="59">
+      <c r="L30" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M30" t="n" s="59">
+      <c r="M30" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N30" t="n" s="59">
+      <c r="N30" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O30" t="n" s="59">
+      <c r="O30" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P30" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P30" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="4"/>
@@ -2407,7 +2389,7 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="11"/>
     </row>
-    <row r="31" spans="1:36" ht="18.75" customHeight="1">
+    <row r="31" spans="1:36" ht="33.75" customHeight="true">
       <c r="A31" s="8"/>
       <c r="B31" t="s" s="58">
         <v>70</v>
@@ -2433,26 +2415,26 @@
       <c r="I31" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J31" t="n" s="59">
+      <c r="J31" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K31" t="n" s="59">
+      <c r="K31" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L31" t="n" s="59">
+      <c r="L31" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M31" t="n" s="59">
+      <c r="M31" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N31" t="n" s="59">
+      <c r="N31" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O31" t="n" s="59">
+      <c r="O31" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P31" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P31" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="4"/>
@@ -2475,7 +2457,7 @@
       <c r="AI31" s="4"/>
       <c r="AJ31" s="11"/>
     </row>
-    <row r="32" spans="1:36" ht="18.75" customHeight="1">
+    <row r="32" spans="1:36" ht="33.75" customHeight="true">
       <c r="A32" s="8"/>
       <c r="B32" t="s" s="58">
         <v>72</v>
@@ -2501,26 +2483,26 @@
       <c r="I32" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J32" t="n" s="59">
+      <c r="J32" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K32" t="n" s="59">
+      <c r="K32" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L32" t="n" s="59">
+      <c r="L32" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M32" t="n" s="59">
+      <c r="M32" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N32" t="n" s="59">
+      <c r="N32" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O32" t="n" s="59">
+      <c r="O32" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P32" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P32" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="4"/>
@@ -2543,7 +2525,7 @@
       <c r="AI32" s="4"/>
       <c r="AJ32" s="11"/>
     </row>
-    <row r="33" spans="1:36" ht="18.75" customHeight="1">
+    <row r="33" spans="1:36" ht="33.75" customHeight="true">
       <c r="A33" s="8"/>
       <c r="B33" t="s" s="58">
         <v>73</v>
@@ -2569,26 +2551,26 @@
       <c r="I33" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J33" t="n" s="59">
+      <c r="J33" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K33" t="n" s="59">
+      <c r="K33" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L33" t="n" s="59">
+      <c r="L33" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M33" t="n" s="59">
+      <c r="M33" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N33" t="n" s="59">
+      <c r="N33" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O33" t="n" s="59">
+      <c r="O33" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P33" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P33" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="4"/>
@@ -2611,7 +2593,7 @@
       <c r="AI33" s="4"/>
       <c r="AJ33" s="11"/>
     </row>
-    <row r="34" spans="1:36" ht="18.75" customHeight="1">
+    <row r="34" spans="1:36" ht="33.75" customHeight="true">
       <c r="A34" s="8"/>
       <c r="B34" t="s" s="58">
         <v>74</v>
@@ -2637,26 +2619,26 @@
       <c r="I34" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J34" t="n" s="59">
+      <c r="J34" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K34" t="n" s="59">
+      <c r="K34" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L34" t="n" s="59">
+      <c r="L34" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M34" t="n" s="59">
+      <c r="M34" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N34" t="n" s="59">
+      <c r="N34" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O34" t="n" s="59">
+      <c r="O34" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P34" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P34" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="4"/>
@@ -2679,7 +2661,7 @@
       <c r="AI34" s="4"/>
       <c r="AJ34" s="11"/>
     </row>
-    <row r="35" spans="1:36" ht="18.75" customHeight="1">
+    <row r="35" spans="1:36" ht="33.75" customHeight="true">
       <c r="A35" s="8"/>
       <c r="B35" t="s" s="58">
         <v>76</v>
@@ -2705,26 +2687,26 @@
       <c r="I35" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J35" t="n" s="59">
+      <c r="J35" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K35" t="n" s="59">
+      <c r="K35" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L35" t="n" s="59">
+      <c r="L35" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M35" t="n" s="59">
+      <c r="M35" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N35" t="n" s="59">
+      <c r="N35" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O35" t="n" s="59">
+      <c r="O35" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P35" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P35" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="4"/>
@@ -2747,7 +2729,7 @@
       <c r="AI35" s="4"/>
       <c r="AJ35" s="11"/>
     </row>
-    <row r="36" spans="1:36" ht="18.75" customHeight="1">
+    <row r="36" spans="1:36" ht="33.75" customHeight="true">
       <c r="A36" s="8"/>
       <c r="B36" t="s" s="58">
         <v>77</v>
@@ -2773,26 +2755,26 @@
       <c r="I36" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J36" t="n" s="59">
+      <c r="J36" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K36" t="n" s="59">
+      <c r="K36" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L36" t="n" s="59">
+      <c r="L36" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M36" t="n" s="59">
+      <c r="M36" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N36" t="n" s="59">
+      <c r="N36" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O36" t="n" s="59">
+      <c r="O36" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P36" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P36" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="4"/>
@@ -2815,7 +2797,7 @@
       <c r="AI36" s="4"/>
       <c r="AJ36" s="11"/>
     </row>
-    <row r="37" spans="1:36" ht="18.75" customHeight="1">
+    <row r="37" spans="1:36" ht="33.75" customHeight="true">
       <c r="A37" s="8"/>
       <c r="B37" t="s" s="58">
         <v>78</v>
@@ -2841,26 +2823,26 @@
       <c r="I37" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J37" t="n" s="59">
+      <c r="J37" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K37" t="n" s="59">
+      <c r="K37" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L37" t="n" s="59">
+      <c r="L37" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M37" t="n" s="59">
+      <c r="M37" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N37" t="n" s="59">
+      <c r="N37" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O37" t="n" s="59">
+      <c r="O37" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P37" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P37" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="4"/>
@@ -2883,7 +2865,7 @@
       <c r="AI37" s="4"/>
       <c r="AJ37" s="11"/>
     </row>
-    <row r="38" spans="1:36" ht="18.75" customHeight="1">
+    <row r="38" spans="1:36" ht="33.75" customHeight="true">
       <c r="A38" s="8"/>
       <c r="B38" t="s" s="58">
         <v>80</v>
@@ -2909,26 +2891,26 @@
       <c r="I38" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J38" t="n" s="59">
+      <c r="J38" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K38" t="n" s="59">
+      <c r="K38" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L38" t="n" s="59">
+      <c r="L38" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M38" t="n" s="59">
+      <c r="M38" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N38" t="n" s="59">
+      <c r="N38" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O38" t="n" s="59">
+      <c r="O38" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P38" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P38" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="4"/>
@@ -2951,7 +2933,7 @@
       <c r="AI38" s="4"/>
       <c r="AJ38" s="11"/>
     </row>
-    <row r="39" spans="1:36" ht="18.75" customHeight="1">
+    <row r="39" spans="1:36" ht="33.75" customHeight="true">
       <c r="A39" s="8"/>
       <c r="B39" t="s" s="58">
         <v>81</v>
@@ -2977,26 +2959,26 @@
       <c r="I39" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J39" t="n" s="59">
+      <c r="J39" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K39" t="n" s="59">
+      <c r="K39" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L39" t="n" s="59">
+      <c r="L39" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M39" t="n" s="59">
+      <c r="M39" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N39" t="n" s="59">
+      <c r="N39" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O39" t="n" s="59">
+      <c r="O39" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P39" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P39" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="4"/>
@@ -3019,7 +3001,7 @@
       <c r="AI39" s="4"/>
       <c r="AJ39" s="11"/>
     </row>
-    <row r="40" spans="1:36" ht="18.75" customHeight="1">
+    <row r="40" spans="1:36" ht="33.75" customHeight="true">
       <c r="A40" s="8"/>
       <c r="B40" t="s" s="58">
         <v>82</v>
@@ -3045,26 +3027,26 @@
       <c r="I40" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J40" t="n" s="59">
+      <c r="J40" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K40" t="n" s="59">
+      <c r="K40" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L40" t="n" s="59">
+      <c r="L40" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M40" t="n" s="59">
+      <c r="M40" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N40" t="n" s="59">
+      <c r="N40" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O40" t="n" s="59">
+      <c r="O40" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P40" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P40" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="4"/>
@@ -3087,7 +3069,7 @@
       <c r="AI40" s="4"/>
       <c r="AJ40" s="11"/>
     </row>
-    <row r="41" spans="1:36" ht="18.75" customHeight="1">
+    <row r="41" spans="1:36" ht="33.75" customHeight="true">
       <c r="A41" s="8"/>
       <c r="B41" t="s" s="58">
         <v>85</v>
@@ -3113,26 +3095,26 @@
       <c r="I41" t="s" s="58">
         <v>67</v>
       </c>
-      <c r="J41" t="n" s="59">
+      <c r="J41" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="K41" t="n" s="59">
+      <c r="K41" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="L41" t="n" s="59">
+      <c r="L41" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="M41" t="n" s="59">
+      <c r="M41" t="n" s="57">
         <v>21800.0</v>
       </c>
-      <c r="N41" t="n" s="59">
+      <c r="N41" t="n" s="57">
         <v>2180.0</v>
       </c>
-      <c r="O41" t="n" s="59">
+      <c r="O41" t="n" s="57">
         <v>23980.0</v>
       </c>
-      <c r="P41" t="n" s="59">
-        <v>95920.0</v>
+      <c r="P41" t="n" s="57">
+        <v>23980.0</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="4"/>
@@ -3155,52 +3137,52 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="11"/>
     </row>
-    <row r="42" spans="1:36" ht="18.75" customHeight="1">
+    <row r="42" spans="1:36" ht="37.5" customHeight="true">
       <c r="A42" s="8"/>
-      <c r="B42" t="s" s="62">
+      <c r="B42" t="s" s="59">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s" s="59">
         <v>87</v>
       </c>
-      <c r="C42" t="s" s="62">
+      <c r="D42" t="s" s="59">
         <v>87</v>
       </c>
-      <c r="D42" t="s" s="62">
+      <c r="E42" t="s" s="59">
         <v>87</v>
       </c>
-      <c r="E42" t="s" s="62">
+      <c r="F42" t="s" s="59">
         <v>87</v>
       </c>
-      <c r="F42" t="s" s="62">
+      <c r="G42" t="s" s="59">
         <v>87</v>
       </c>
-      <c r="G42" t="s" s="62">
+      <c r="H42" t="s" s="59">
         <v>87</v>
       </c>
-      <c r="H42" t="s" s="62">
+      <c r="I42" t="s" s="59">
         <v>87</v>
       </c>
-      <c r="I42" t="s" s="62">
-        <v>87</v>
-      </c>
-      <c r="J42" t="n" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="K42" t="n" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="L42" t="n" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="M42" t="n" s="61">
+      <c r="J42" t="n" s="60">
         <v>305200.0</v>
       </c>
-      <c r="N42" t="n" s="61">
+      <c r="K42" t="n" s="60">
         <v>30520.0</v>
       </c>
-      <c r="O42" t="n" s="61">
+      <c r="L42" t="n" s="60">
         <v>335720.0</v>
       </c>
-      <c r="P42" t="n" s="61">
-        <v>671440.0</v>
+      <c r="M42" t="n" s="60">
+        <v>305200.0</v>
+      </c>
+      <c r="N42" t="n" s="60">
+        <v>30520.0</v>
+      </c>
+      <c r="O42" t="n" s="60">
+        <v>335720.0</v>
+      </c>
+      <c r="P42" t="n" s="60">
+        <v>335720.0</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="4"/>
@@ -3309,13 +3291,13 @@
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
       <c r="O45" s="37"/>
-      <c r="P45" s="39"/>
+      <c r="P45" s="37"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="4"/>
       <c r="S45" s="11"/>
@@ -3681,21 +3663,21 @@
     </row>
     <row r="55" spans="1:36" ht="18.75" customHeight="1">
       <c r="A55" s="8"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="4"/>
       <c r="S55" s="11"/>
@@ -3719,21 +3701,21 @@
     </row>
     <row r="56" spans="1:36" ht="18.75" customHeight="1">
       <c r="A56" s="8"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="4"/>
       <c r="S56" s="11"/>
@@ -3757,21 +3739,21 @@
     </row>
     <row r="57" spans="1:36" ht="18.75" customHeight="1">
       <c r="A57" s="8"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="4"/>
       <c r="S57" s="11"/>
@@ -3794,29 +3776,29 @@
       <c r="AJ57" s="11"/>
     </row>
     <row r="58" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="8"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="11"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
@@ -3837,17 +3819,17 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
@@ -3875,17 +3857,17 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="46"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
@@ -3913,17 +3895,17 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
@@ -3951,17 +3933,17 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
@@ -3989,17 +3971,17 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
@@ -4027,17 +4009,17 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
@@ -4065,17 +4047,17 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -4103,17 +4085,17 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
@@ -4141,17 +4123,17 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -4179,17 +4161,17 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
@@ -4217,17 +4199,17 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -4255,17 +4237,17 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
@@ -4293,17 +4275,17 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
@@ -4331,17 +4313,17 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -4369,17 +4351,17 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -4407,17 +4389,17 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
@@ -4445,17 +4427,17 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
@@ -4483,17 +4465,17 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
@@ -4521,17 +4503,17 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="46"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
@@ -4559,17 +4541,17 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
@@ -4597,17 +4579,17 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
@@ -4635,17 +4617,17 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
@@ -4673,17 +4655,17 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
@@ -4711,17 +4693,17 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
@@ -4749,17 +4731,17 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
@@ -4787,17 +4769,17 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="46"/>
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
@@ -4825,17 +4807,17 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
@@ -4863,17 +4845,17 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="46"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="46"/>
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
@@ -4901,17 +4883,17 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="46"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
@@ -4939,17 +4921,17 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
@@ -4977,17 +4959,17 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="46"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="46"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
@@ -5015,17 +4997,17 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
@@ -5053,17 +5035,17 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="46"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
@@ -5091,17 +5073,17 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
@@ -5129,17 +5111,17 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
@@ -5167,17 +5149,17 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="46"/>
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
@@ -5205,17 +5187,17 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="46"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
@@ -5243,17 +5225,17 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
@@ -5281,17 +5263,17 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="46"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
@@ -5319,17 +5301,17 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="46"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="46"/>
-      <c r="N98" s="46"/>
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
@@ -5357,17 +5339,17 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="46"/>
-      <c r="K99" s="46"/>
-      <c r="L99" s="46"/>
-      <c r="M99" s="46"/>
-      <c r="N99" s="46"/>
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
@@ -5395,17 +5377,17 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="46"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="46"/>
-      <c r="L100" s="46"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="42"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
@@ -5433,17 +5415,17 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="46"/>
-      <c r="L101" s="46"/>
-      <c r="M101" s="46"/>
-      <c r="N101" s="46"/>
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="42"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="42"/>
       <c r="Q101" s="11"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
@@ -5471,17 +5453,17 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
-      <c r="J102" s="46"/>
-      <c r="K102" s="46"/>
-      <c r="L102" s="46"/>
-      <c r="M102" s="46"/>
-      <c r="N102" s="46"/>
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
@@ -5509,17 +5491,17 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="46"/>
-      <c r="K103" s="46"/>
-      <c r="L103" s="46"/>
-      <c r="M103" s="46"/>
-      <c r="N103" s="46"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
@@ -5547,17 +5529,17 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="46"/>
-      <c r="K104" s="46"/>
-      <c r="L104" s="46"/>
-      <c r="M104" s="46"/>
-      <c r="N104" s="46"/>
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
@@ -5585,17 +5567,17 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="46"/>
-      <c r="K105" s="46"/>
-      <c r="L105" s="46"/>
-      <c r="M105" s="46"/>
-      <c r="N105" s="46"/>
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
       <c r="Q105" s="11"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
@@ -5623,17 +5605,17 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="46"/>
-      <c r="J106" s="46"/>
-      <c r="K106" s="46"/>
-      <c r="L106" s="46"/>
-      <c r="M106" s="46"/>
-      <c r="N106" s="46"/>
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
       <c r="Q106" s="11"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
@@ -5661,17 +5643,17 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="46"/>
-      <c r="K107" s="46"/>
-      <c r="L107" s="46"/>
-      <c r="M107" s="46"/>
-      <c r="N107" s="46"/>
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
       <c r="Q107" s="11"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
@@ -5699,17 +5681,17 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
-      <c r="K108" s="46"/>
-      <c r="L108" s="46"/>
-      <c r="M108" s="46"/>
-      <c r="N108" s="46"/>
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
       <c r="Q108" s="11"/>
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
@@ -5737,17 +5719,17 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="46"/>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
       <c r="Q109" s="11"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
@@ -5775,17 +5757,17 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="46"/>
-      <c r="K110" s="46"/>
-      <c r="L110" s="46"/>
-      <c r="M110" s="46"/>
-      <c r="N110" s="46"/>
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="42"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
       <c r="Q110" s="11"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
@@ -5813,17 +5795,17 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="46"/>
-      <c r="K111" s="46"/>
-      <c r="L111" s="46"/>
-      <c r="M111" s="46"/>
-      <c r="N111" s="46"/>
-      <c r="O111" s="46"/>
-      <c r="P111" s="46"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
       <c r="Q111" s="11"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
@@ -5851,17 +5833,17 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="46"/>
-      <c r="J112" s="46"/>
-      <c r="K112" s="46"/>
-      <c r="L112" s="46"/>
-      <c r="M112" s="46"/>
-      <c r="N112" s="46"/>
-      <c r="O112" s="46"/>
-      <c r="P112" s="46"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="42"/>
+      <c r="P112" s="42"/>
       <c r="Q112" s="11"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
@@ -5889,17 +5871,17 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="46"/>
-      <c r="L113" s="46"/>
-      <c r="M113" s="46"/>
-      <c r="N113" s="46"/>
-      <c r="O113" s="46"/>
-      <c r="P113" s="46"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="42"/>
+      <c r="O113" s="42"/>
+      <c r="P113" s="42"/>
       <c r="Q113" s="11"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
@@ -5927,17 +5909,17 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="46"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="46"/>
-      <c r="N114" s="46"/>
-      <c r="O114" s="46"/>
-      <c r="P114" s="46"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
+      <c r="O114" s="42"/>
+      <c r="P114" s="42"/>
       <c r="Q114" s="11"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
@@ -5965,17 +5947,17 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="46"/>
-      <c r="J115" s="46"/>
-      <c r="K115" s="46"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="46"/>
-      <c r="N115" s="46"/>
-      <c r="O115" s="46"/>
-      <c r="P115" s="46"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+      <c r="P115" s="42"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
@@ -6003,17 +5985,17 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="N116" s="46"/>
-      <c r="O116" s="46"/>
-      <c r="P116" s="46"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="42"/>
+      <c r="O116" s="42"/>
+      <c r="P116" s="42"/>
       <c r="Q116" s="11"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
@@ -6041,17 +6023,17 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="46"/>
-      <c r="K117" s="46"/>
-      <c r="L117" s="46"/>
-      <c r="M117" s="46"/>
-      <c r="N117" s="46"/>
-      <c r="O117" s="46"/>
-      <c r="P117" s="46"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="42"/>
+      <c r="P117" s="42"/>
       <c r="Q117" s="11"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
@@ -6079,17 +6061,17 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="46"/>
-      <c r="J118" s="46"/>
-      <c r="K118" s="46"/>
-      <c r="L118" s="46"/>
-      <c r="M118" s="46"/>
-      <c r="N118" s="46"/>
-      <c r="O118" s="46"/>
-      <c r="P118" s="46"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="42"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="42"/>
+      <c r="O118" s="42"/>
+      <c r="P118" s="42"/>
       <c r="Q118" s="11"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
@@ -6117,17 +6099,17 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="N119" s="46"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="46"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
       <c r="Q119" s="11"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
@@ -6149,23 +6131,23 @@
       <c r="AI119" s="4"/>
       <c r="AJ119" s="11"/>
     </row>
-    <row r="120" spans="1:36" ht="18.75" customHeight="1">
+    <row r="120" spans="1:36" ht="18" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="N120" s="46"/>
-      <c r="O120" s="46"/>
-      <c r="P120" s="46"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="42"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="42"/>
+      <c r="O120" s="42"/>
+      <c r="P120" s="42"/>
       <c r="Q120" s="11"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
@@ -6187,23 +6169,23 @@
       <c r="AI120" s="4"/>
       <c r="AJ120" s="11"/>
     </row>
-    <row r="121" spans="1:36" ht="18" customHeight="1">
+    <row r="121" spans="1:36" ht="18.75" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="46"/>
-      <c r="M121" s="46"/>
-      <c r="N121" s="46"/>
-      <c r="O121" s="46"/>
-      <c r="P121" s="46"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="42"/>
+      <c r="O121" s="42"/>
+      <c r="P121" s="42"/>
       <c r="Q121" s="11"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
@@ -6231,17 +6213,17 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
-      <c r="L122" s="46"/>
-      <c r="M122" s="46"/>
-      <c r="N122" s="46"/>
-      <c r="O122" s="46"/>
-      <c r="P122" s="46"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="42"/>
+      <c r="O122" s="42"/>
+      <c r="P122" s="42"/>
       <c r="Q122" s="11"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
@@ -6269,17 +6251,17 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
-      <c r="L123" s="46"/>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
-      <c r="P123" s="46"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="42"/>
+      <c r="O123" s="42"/>
+      <c r="P123" s="42"/>
       <c r="Q123" s="11"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
@@ -6307,17 +6289,17 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
-      <c r="L124" s="46"/>
-      <c r="M124" s="46"/>
-      <c r="N124" s="46"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="46"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42"/>
+      <c r="O124" s="42"/>
+      <c r="P124" s="42"/>
       <c r="Q124" s="11"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
@@ -6345,17 +6327,17 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="46"/>
-      <c r="L125" s="46"/>
-      <c r="M125" s="46"/>
-      <c r="N125" s="46"/>
-      <c r="O125" s="46"/>
-      <c r="P125" s="46"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="42"/>
+      <c r="O125" s="42"/>
+      <c r="P125" s="42"/>
       <c r="Q125" s="11"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
@@ -6383,17 +6365,17 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="46"/>
-      <c r="L126" s="46"/>
-      <c r="M126" s="46"/>
-      <c r="N126" s="46"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="46"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="42"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="42"/>
+      <c r="O126" s="42"/>
+      <c r="P126" s="42"/>
       <c r="Q126" s="11"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
@@ -6421,17 +6403,17 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="46"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="46"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="42"/>
+      <c r="M127" s="42"/>
+      <c r="N127" s="42"/>
+      <c r="O127" s="42"/>
+      <c r="P127" s="42"/>
       <c r="Q127" s="11"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
@@ -6459,17 +6441,17 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
-      <c r="I128" s="46"/>
-      <c r="J128" s="46"/>
-      <c r="K128" s="46"/>
-      <c r="L128" s="46"/>
-      <c r="M128" s="46"/>
-      <c r="N128" s="46"/>
-      <c r="O128" s="46"/>
-      <c r="P128" s="46"/>
+      <c r="F128" s="42"/>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="42"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="42"/>
+      <c r="M128" s="42"/>
+      <c r="N128" s="42"/>
+      <c r="O128" s="42"/>
+      <c r="P128" s="42"/>
       <c r="Q128" s="11"/>
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
@@ -6497,17 +6479,17 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="46"/>
-      <c r="I129" s="46"/>
-      <c r="J129" s="46"/>
-      <c r="K129" s="46"/>
-      <c r="L129" s="46"/>
-      <c r="M129" s="46"/>
-      <c r="N129" s="46"/>
-      <c r="O129" s="46"/>
-      <c r="P129" s="46"/>
+      <c r="F129" s="42"/>
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="42"/>
+      <c r="M129" s="42"/>
+      <c r="N129" s="42"/>
+      <c r="O129" s="42"/>
+      <c r="P129" s="42"/>
       <c r="Q129" s="11"/>
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
@@ -6535,17 +6517,17 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="46"/>
-      <c r="I130" s="46"/>
-      <c r="J130" s="46"/>
-      <c r="K130" s="46"/>
-      <c r="L130" s="46"/>
-      <c r="M130" s="46"/>
-      <c r="N130" s="46"/>
-      <c r="O130" s="46"/>
-      <c r="P130" s="46"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="42"/>
+      <c r="N130" s="42"/>
+      <c r="O130" s="42"/>
+      <c r="P130" s="42"/>
       <c r="Q130" s="11"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
@@ -6573,17 +6555,17 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="46"/>
-      <c r="G131" s="46"/>
-      <c r="H131" s="46"/>
-      <c r="I131" s="46"/>
-      <c r="J131" s="46"/>
-      <c r="K131" s="46"/>
-      <c r="L131" s="46"/>
-      <c r="M131" s="46"/>
-      <c r="N131" s="46"/>
-      <c r="O131" s="46"/>
-      <c r="P131" s="46"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="42"/>
+      <c r="M131" s="42"/>
+      <c r="N131" s="42"/>
+      <c r="O131" s="42"/>
+      <c r="P131" s="42"/>
       <c r="Q131" s="11"/>
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
@@ -6611,17 +6593,17 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="46"/>
-      <c r="K132" s="46"/>
-      <c r="L132" s="46"/>
-      <c r="M132" s="46"/>
-      <c r="N132" s="46"/>
-      <c r="O132" s="46"/>
-      <c r="P132" s="46"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
+      <c r="P132" s="42"/>
       <c r="Q132" s="11"/>
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
@@ -6649,17 +6631,17 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="46"/>
-      <c r="K133" s="46"/>
-      <c r="L133" s="46"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
-      <c r="O133" s="46"/>
-      <c r="P133" s="46"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="42"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42"/>
+      <c r="O133" s="42"/>
+      <c r="P133" s="42"/>
       <c r="Q133" s="11"/>
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
@@ -6687,17 +6669,17 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="46"/>
-      <c r="I134" s="46"/>
-      <c r="J134" s="46"/>
-      <c r="K134" s="46"/>
-      <c r="L134" s="46"/>
-      <c r="M134" s="46"/>
-      <c r="N134" s="46"/>
-      <c r="O134" s="46"/>
-      <c r="P134" s="46"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="42"/>
+      <c r="M134" s="42"/>
+      <c r="N134" s="42"/>
+      <c r="O134" s="42"/>
+      <c r="P134" s="42"/>
       <c r="Q134" s="11"/>
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
@@ -6725,17 +6707,17 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="46"/>
-      <c r="K135" s="46"/>
-      <c r="L135" s="46"/>
-      <c r="M135" s="46"/>
-      <c r="N135" s="46"/>
-      <c r="O135" s="46"/>
-      <c r="P135" s="46"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="42"/>
+      <c r="M135" s="42"/>
+      <c r="N135" s="42"/>
+      <c r="O135" s="42"/>
+      <c r="P135" s="42"/>
       <c r="Q135" s="11"/>
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
@@ -6763,17 +6745,17 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="46"/>
-      <c r="J136" s="46"/>
-      <c r="K136" s="46"/>
-      <c r="L136" s="46"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="46"/>
-      <c r="O136" s="46"/>
-      <c r="P136" s="46"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="42"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="42"/>
+      <c r="O136" s="42"/>
+      <c r="P136" s="42"/>
       <c r="Q136" s="11"/>
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
@@ -6801,17 +6783,17 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="46"/>
-      <c r="I137" s="46"/>
-      <c r="J137" s="46"/>
-      <c r="K137" s="46"/>
-      <c r="L137" s="46"/>
-      <c r="M137" s="46"/>
-      <c r="N137" s="46"/>
-      <c r="O137" s="46"/>
-      <c r="P137" s="46"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+      <c r="K137" s="42"/>
+      <c r="L137" s="42"/>
+      <c r="M137" s="42"/>
+      <c r="N137" s="42"/>
+      <c r="O137" s="42"/>
+      <c r="P137" s="42"/>
       <c r="Q137" s="11"/>
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
@@ -6839,17 +6821,17 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="46"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="46"/>
-      <c r="J138" s="46"/>
-      <c r="K138" s="46"/>
-      <c r="L138" s="46"/>
-      <c r="M138" s="46"/>
-      <c r="N138" s="46"/>
-      <c r="O138" s="46"/>
-      <c r="P138" s="46"/>
+      <c r="F138" s="42"/>
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+      <c r="K138" s="42"/>
+      <c r="L138" s="42"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="42"/>
+      <c r="O138" s="42"/>
+      <c r="P138" s="42"/>
       <c r="Q138" s="11"/>
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
@@ -6877,17 +6859,17 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="46"/>
-      <c r="I139" s="46"/>
-      <c r="J139" s="46"/>
-      <c r="K139" s="46"/>
-      <c r="L139" s="46"/>
-      <c r="M139" s="46"/>
-      <c r="N139" s="46"/>
-      <c r="O139" s="46"/>
-      <c r="P139" s="46"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+      <c r="K139" s="42"/>
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="42"/>
+      <c r="O139" s="42"/>
+      <c r="P139" s="42"/>
       <c r="Q139" s="11"/>
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
@@ -6915,17 +6897,17 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="46"/>
-      <c r="I140" s="46"/>
-      <c r="J140" s="46"/>
-      <c r="K140" s="46"/>
-      <c r="L140" s="46"/>
-      <c r="M140" s="46"/>
-      <c r="N140" s="46"/>
-      <c r="O140" s="46"/>
-      <c r="P140" s="46"/>
+      <c r="F140" s="42"/>
+      <c r="G140" s="42"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="42"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="42"/>
+      <c r="O140" s="42"/>
+      <c r="P140" s="42"/>
       <c r="Q140" s="11"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
@@ -6953,17 +6935,17 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="46"/>
-      <c r="I141" s="46"/>
-      <c r="J141" s="46"/>
-      <c r="K141" s="46"/>
-      <c r="L141" s="46"/>
-      <c r="M141" s="46"/>
-      <c r="N141" s="46"/>
-      <c r="O141" s="46"/>
-      <c r="P141" s="46"/>
+      <c r="F141" s="42"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="42"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="42"/>
+      <c r="O141" s="42"/>
+      <c r="P141" s="42"/>
       <c r="Q141" s="11"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
@@ -6991,17 +6973,17 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="46"/>
-      <c r="K142" s="46"/>
-      <c r="L142" s="46"/>
-      <c r="M142" s="46"/>
-      <c r="N142" s="46"/>
-      <c r="O142" s="46"/>
-      <c r="P142" s="46"/>
+      <c r="F142" s="42"/>
+      <c r="G142" s="42"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
+      <c r="K142" s="42"/>
+      <c r="L142" s="42"/>
+      <c r="M142" s="42"/>
+      <c r="N142" s="42"/>
+      <c r="O142" s="42"/>
+      <c r="P142" s="42"/>
       <c r="Q142" s="11"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
@@ -7029,17 +7011,17 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="46"/>
-      <c r="I143" s="46"/>
-      <c r="J143" s="46"/>
-      <c r="K143" s="46"/>
-      <c r="L143" s="46"/>
-      <c r="M143" s="46"/>
-      <c r="N143" s="46"/>
-      <c r="O143" s="46"/>
-      <c r="P143" s="46"/>
+      <c r="F143" s="42"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="42"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="42"/>
+      <c r="O143" s="42"/>
+      <c r="P143" s="42"/>
       <c r="Q143" s="11"/>
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
@@ -7067,17 +7049,17 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="46"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="46"/>
-      <c r="I144" s="46"/>
-      <c r="J144" s="46"/>
-      <c r="K144" s="46"/>
-      <c r="L144" s="46"/>
-      <c r="M144" s="46"/>
-      <c r="N144" s="46"/>
-      <c r="O144" s="46"/>
-      <c r="P144" s="46"/>
+      <c r="F144" s="42"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="42"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="42"/>
+      <c r="M144" s="42"/>
+      <c r="N144" s="42"/>
+      <c r="O144" s="42"/>
+      <c r="P144" s="42"/>
       <c r="Q144" s="11"/>
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
@@ -7105,17 +7087,17 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46"/>
-      <c r="I145" s="46"/>
-      <c r="J145" s="46"/>
-      <c r="K145" s="46"/>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
-      <c r="N145" s="46"/>
-      <c r="O145" s="46"/>
-      <c r="P145" s="46"/>
+      <c r="F145" s="42"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
+      <c r="K145" s="42"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="42"/>
+      <c r="N145" s="42"/>
+      <c r="O145" s="42"/>
+      <c r="P145" s="42"/>
       <c r="Q145" s="11"/>
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
@@ -7143,17 +7125,17 @@
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="46"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
-      <c r="I146" s="46"/>
-      <c r="J146" s="46"/>
-      <c r="K146" s="46"/>
-      <c r="L146" s="46"/>
-      <c r="M146" s="46"/>
-      <c r="N146" s="46"/>
-      <c r="O146" s="46"/>
-      <c r="P146" s="46"/>
+      <c r="F146" s="42"/>
+      <c r="G146" s="42"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="42"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="42"/>
+      <c r="O146" s="42"/>
+      <c r="P146" s="42"/>
       <c r="Q146" s="11"/>
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
@@ -7181,17 +7163,17 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="46"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="46"/>
-      <c r="I147" s="46"/>
-      <c r="J147" s="46"/>
-      <c r="K147" s="46"/>
-      <c r="L147" s="46"/>
-      <c r="M147" s="46"/>
-      <c r="N147" s="46"/>
-      <c r="O147" s="46"/>
-      <c r="P147" s="46"/>
+      <c r="F147" s="42"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="42"/>
+      <c r="O147" s="42"/>
+      <c r="P147" s="42"/>
       <c r="Q147" s="11"/>
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
@@ -7219,17 +7201,17 @@
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
-      <c r="I148" s="46"/>
-      <c r="J148" s="46"/>
-      <c r="K148" s="46"/>
-      <c r="L148" s="46"/>
-      <c r="M148" s="46"/>
-      <c r="N148" s="46"/>
-      <c r="O148" s="46"/>
-      <c r="P148" s="46"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="42"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="42"/>
       <c r="Q148" s="11"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
@@ -7257,17 +7239,17 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
-      <c r="I149" s="46"/>
-      <c r="J149" s="46"/>
-      <c r="K149" s="46"/>
-      <c r="L149" s="46"/>
-      <c r="M149" s="46"/>
-      <c r="N149" s="46"/>
-      <c r="O149" s="46"/>
-      <c r="P149" s="46"/>
+      <c r="F149" s="42"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="42"/>
+      <c r="K149" s="42"/>
+      <c r="L149" s="42"/>
+      <c r="M149" s="42"/>
+      <c r="N149" s="42"/>
+      <c r="O149" s="42"/>
+      <c r="P149" s="42"/>
       <c r="Q149" s="11"/>
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
@@ -7295,17 +7277,17 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="46"/>
-      <c r="J150" s="46"/>
-      <c r="K150" s="46"/>
-      <c r="L150" s="46"/>
-      <c r="M150" s="46"/>
-      <c r="N150" s="46"/>
-      <c r="O150" s="46"/>
-      <c r="P150" s="46"/>
+      <c r="F150" s="42"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="42"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="42"/>
+      <c r="M150" s="42"/>
+      <c r="N150" s="42"/>
+      <c r="O150" s="42"/>
+      <c r="P150" s="42"/>
       <c r="Q150" s="11"/>
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
@@ -7333,17 +7315,17 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="46"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
-      <c r="I151" s="46"/>
-      <c r="J151" s="46"/>
-      <c r="K151" s="46"/>
-      <c r="L151" s="46"/>
-      <c r="M151" s="46"/>
-      <c r="N151" s="46"/>
-      <c r="O151" s="46"/>
-      <c r="P151" s="46"/>
+      <c r="F151" s="42"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
+      <c r="K151" s="42"/>
+      <c r="L151" s="42"/>
+      <c r="M151" s="42"/>
+      <c r="N151" s="42"/>
+      <c r="O151" s="42"/>
+      <c r="P151" s="42"/>
       <c r="Q151" s="11"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
@@ -7371,17 +7353,17 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
-      <c r="I152" s="46"/>
-      <c r="J152" s="46"/>
-      <c r="K152" s="46"/>
-      <c r="L152" s="46"/>
-      <c r="M152" s="46"/>
-      <c r="N152" s="46"/>
-      <c r="O152" s="46"/>
-      <c r="P152" s="46"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+      <c r="K152" s="42"/>
+      <c r="L152" s="42"/>
+      <c r="M152" s="42"/>
+      <c r="N152" s="42"/>
+      <c r="O152" s="42"/>
+      <c r="P152" s="42"/>
       <c r="Q152" s="11"/>
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
@@ -7409,17 +7391,17 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="46"/>
-      <c r="J153" s="46"/>
-      <c r="K153" s="46"/>
-      <c r="L153" s="46"/>
-      <c r="M153" s="46"/>
-      <c r="N153" s="46"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
+      <c r="F153" s="42"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="42"/>
+      <c r="K153" s="42"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="42"/>
+      <c r="O153" s="42"/>
+      <c r="P153" s="42"/>
       <c r="Q153" s="11"/>
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
@@ -7447,17 +7429,17 @@
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
-      <c r="F154" s="46"/>
-      <c r="G154" s="46"/>
-      <c r="H154" s="46"/>
-      <c r="I154" s="46"/>
-      <c r="J154" s="46"/>
-      <c r="K154" s="46"/>
-      <c r="L154" s="46"/>
-      <c r="M154" s="46"/>
-      <c r="N154" s="46"/>
-      <c r="O154" s="46"/>
-      <c r="P154" s="46"/>
+      <c r="F154" s="42"/>
+      <c r="G154" s="42"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="42"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="42"/>
+      <c r="M154" s="42"/>
+      <c r="N154" s="42"/>
+      <c r="O154" s="42"/>
+      <c r="P154" s="42"/>
       <c r="Q154" s="11"/>
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
@@ -7485,17 +7467,17 @@
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="46"/>
-      <c r="G155" s="46"/>
-      <c r="H155" s="46"/>
-      <c r="I155" s="46"/>
-      <c r="J155" s="46"/>
-      <c r="K155" s="46"/>
-      <c r="L155" s="46"/>
-      <c r="M155" s="46"/>
-      <c r="N155" s="46"/>
-      <c r="O155" s="46"/>
-      <c r="P155" s="46"/>
+      <c r="F155" s="42"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
+      <c r="K155" s="42"/>
+      <c r="L155" s="42"/>
+      <c r="M155" s="42"/>
+      <c r="N155" s="42"/>
+      <c r="O155" s="42"/>
+      <c r="P155" s="42"/>
       <c r="Q155" s="11"/>
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
@@ -7523,17 +7505,17 @@
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="46"/>
-      <c r="G156" s="46"/>
-      <c r="H156" s="46"/>
-      <c r="I156" s="46"/>
-      <c r="J156" s="46"/>
-      <c r="K156" s="46"/>
-      <c r="L156" s="46"/>
-      <c r="M156" s="46"/>
-      <c r="N156" s="46"/>
-      <c r="O156" s="46"/>
-      <c r="P156" s="46"/>
+      <c r="F156" s="42"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="42"/>
+      <c r="K156" s="42"/>
+      <c r="L156" s="42"/>
+      <c r="M156" s="42"/>
+      <c r="N156" s="42"/>
+      <c r="O156" s="42"/>
+      <c r="P156" s="42"/>
       <c r="Q156" s="11"/>
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
@@ -7561,17 +7543,17 @@
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="46"/>
-      <c r="G157" s="46"/>
-      <c r="H157" s="46"/>
-      <c r="I157" s="46"/>
-      <c r="J157" s="46"/>
-      <c r="K157" s="46"/>
-      <c r="L157" s="46"/>
-      <c r="M157" s="46"/>
-      <c r="N157" s="46"/>
-      <c r="O157" s="46"/>
-      <c r="P157" s="46"/>
+      <c r="F157" s="42"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="42"/>
+      <c r="K157" s="42"/>
+      <c r="L157" s="42"/>
+      <c r="M157" s="42"/>
+      <c r="N157" s="42"/>
+      <c r="O157" s="42"/>
+      <c r="P157" s="42"/>
       <c r="Q157" s="11"/>
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
@@ -7599,17 +7581,17 @@
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="46"/>
-      <c r="G158" s="46"/>
-      <c r="H158" s="46"/>
-      <c r="I158" s="46"/>
-      <c r="J158" s="46"/>
-      <c r="K158" s="46"/>
-      <c r="L158" s="46"/>
-      <c r="M158" s="46"/>
-      <c r="N158" s="46"/>
-      <c r="O158" s="46"/>
-      <c r="P158" s="46"/>
+      <c r="F158" s="42"/>
+      <c r="G158" s="42"/>
+      <c r="H158" s="42"/>
+      <c r="I158" s="42"/>
+      <c r="J158" s="42"/>
+      <c r="K158" s="42"/>
+      <c r="L158" s="42"/>
+      <c r="M158" s="42"/>
+      <c r="N158" s="42"/>
+      <c r="O158" s="42"/>
+      <c r="P158" s="42"/>
       <c r="Q158" s="11"/>
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
@@ -7637,17 +7619,17 @@
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="46"/>
-      <c r="H159" s="46"/>
-      <c r="I159" s="46"/>
-      <c r="J159" s="46"/>
-      <c r="K159" s="46"/>
-      <c r="L159" s="46"/>
-      <c r="M159" s="46"/>
-      <c r="N159" s="46"/>
-      <c r="O159" s="46"/>
-      <c r="P159" s="46"/>
+      <c r="F159" s="42"/>
+      <c r="G159" s="42"/>
+      <c r="H159" s="42"/>
+      <c r="I159" s="42"/>
+      <c r="J159" s="42"/>
+      <c r="K159" s="42"/>
+      <c r="L159" s="42"/>
+      <c r="M159" s="42"/>
+      <c r="N159" s="42"/>
+      <c r="O159" s="42"/>
+      <c r="P159" s="42"/>
       <c r="Q159" s="11"/>
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
@@ -7675,17 +7657,17 @@
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="46"/>
-      <c r="H160" s="46"/>
-      <c r="I160" s="46"/>
-      <c r="J160" s="46"/>
-      <c r="K160" s="46"/>
-      <c r="L160" s="46"/>
-      <c r="M160" s="46"/>
-      <c r="N160" s="46"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="46"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="42"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="42"/>
+      <c r="K160" s="42"/>
+      <c r="L160" s="42"/>
+      <c r="M160" s="42"/>
+      <c r="N160" s="42"/>
+      <c r="O160" s="42"/>
+      <c r="P160" s="42"/>
       <c r="Q160" s="11"/>
       <c r="R160" s="4"/>
       <c r="S160" s="4"/>
@@ -7713,17 +7695,17 @@
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="46"/>
-      <c r="G161" s="46"/>
-      <c r="H161" s="46"/>
-      <c r="I161" s="46"/>
-      <c r="J161" s="46"/>
-      <c r="K161" s="46"/>
-      <c r="L161" s="46"/>
-      <c r="M161" s="46"/>
-      <c r="N161" s="46"/>
-      <c r="O161" s="46"/>
-      <c r="P161" s="46"/>
+      <c r="F161" s="42"/>
+      <c r="G161" s="42"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="42"/>
+      <c r="K161" s="42"/>
+      <c r="L161" s="42"/>
+      <c r="M161" s="42"/>
+      <c r="N161" s="42"/>
+      <c r="O161" s="42"/>
+      <c r="P161" s="42"/>
       <c r="Q161" s="11"/>
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
@@ -7751,17 +7733,17 @@
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="46"/>
-      <c r="H162" s="46"/>
-      <c r="I162" s="46"/>
-      <c r="J162" s="46"/>
-      <c r="K162" s="46"/>
-      <c r="L162" s="46"/>
-      <c r="M162" s="46"/>
-      <c r="N162" s="46"/>
-      <c r="O162" s="46"/>
-      <c r="P162" s="46"/>
+      <c r="F162" s="42"/>
+      <c r="G162" s="42"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="42"/>
+      <c r="K162" s="42"/>
+      <c r="L162" s="42"/>
+      <c r="M162" s="42"/>
+      <c r="N162" s="42"/>
+      <c r="O162" s="42"/>
+      <c r="P162" s="42"/>
       <c r="Q162" s="11"/>
       <c r="R162" s="4"/>
       <c r="S162" s="4"/>
@@ -7789,17 +7771,17 @@
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="46"/>
-      <c r="G163" s="46"/>
-      <c r="H163" s="46"/>
-      <c r="I163" s="46"/>
-      <c r="J163" s="46"/>
-      <c r="K163" s="46"/>
-      <c r="L163" s="46"/>
-      <c r="M163" s="46"/>
-      <c r="N163" s="46"/>
-      <c r="O163" s="46"/>
-      <c r="P163" s="46"/>
+      <c r="F163" s="42"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="42"/>
+      <c r="K163" s="42"/>
+      <c r="L163" s="42"/>
+      <c r="M163" s="42"/>
+      <c r="N163" s="42"/>
+      <c r="O163" s="42"/>
+      <c r="P163" s="42"/>
       <c r="Q163" s="11"/>
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
@@ -7827,17 +7809,17 @@
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="46"/>
-      <c r="H164" s="46"/>
-      <c r="I164" s="46"/>
-      <c r="J164" s="46"/>
-      <c r="K164" s="46"/>
-      <c r="L164" s="46"/>
-      <c r="M164" s="46"/>
-      <c r="N164" s="46"/>
-      <c r="O164" s="46"/>
-      <c r="P164" s="46"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="42"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="42"/>
+      <c r="M164" s="42"/>
+      <c r="N164" s="42"/>
+      <c r="O164" s="42"/>
+      <c r="P164" s="42"/>
       <c r="Q164" s="11"/>
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
@@ -7865,17 +7847,17 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="46"/>
-      <c r="G165" s="46"/>
-      <c r="H165" s="46"/>
-      <c r="I165" s="46"/>
-      <c r="J165" s="46"/>
-      <c r="K165" s="46"/>
-      <c r="L165" s="46"/>
-      <c r="M165" s="46"/>
-      <c r="N165" s="46"/>
-      <c r="O165" s="46"/>
-      <c r="P165" s="46"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="42"/>
+      <c r="K165" s="42"/>
+      <c r="L165" s="42"/>
+      <c r="M165" s="42"/>
+      <c r="N165" s="42"/>
+      <c r="O165" s="42"/>
+      <c r="P165" s="42"/>
       <c r="Q165" s="11"/>
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
@@ -7903,17 +7885,17 @@
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
-      <c r="F166" s="46"/>
-      <c r="G166" s="46"/>
-      <c r="H166" s="46"/>
-      <c r="I166" s="46"/>
-      <c r="J166" s="46"/>
-      <c r="K166" s="46"/>
-      <c r="L166" s="46"/>
-      <c r="M166" s="46"/>
-      <c r="N166" s="46"/>
-      <c r="O166" s="46"/>
-      <c r="P166" s="46"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="42"/>
+      <c r="M166" s="42"/>
+      <c r="N166" s="42"/>
+      <c r="O166" s="42"/>
+      <c r="P166" s="42"/>
       <c r="Q166" s="11"/>
       <c r="R166" s="4"/>
       <c r="S166" s="4"/>
@@ -7941,17 +7923,17 @@
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="46"/>
-      <c r="G167" s="46"/>
-      <c r="H167" s="46"/>
-      <c r="I167" s="46"/>
-      <c r="J167" s="46"/>
-      <c r="K167" s="46"/>
-      <c r="L167" s="46"/>
-      <c r="M167" s="46"/>
-      <c r="N167" s="46"/>
-      <c r="O167" s="46"/>
-      <c r="P167" s="46"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="42"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="42"/>
+      <c r="J167" s="42"/>
+      <c r="K167" s="42"/>
+      <c r="L167" s="42"/>
+      <c r="M167" s="42"/>
+      <c r="N167" s="42"/>
+      <c r="O167" s="42"/>
+      <c r="P167" s="42"/>
       <c r="Q167" s="11"/>
       <c r="R167" s="4"/>
       <c r="S167" s="4"/>
@@ -7979,17 +7961,17 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="46"/>
-      <c r="G168" s="46"/>
-      <c r="H168" s="46"/>
-      <c r="I168" s="46"/>
-      <c r="J168" s="46"/>
-      <c r="K168" s="46"/>
-      <c r="L168" s="46"/>
-      <c r="M168" s="46"/>
-      <c r="N168" s="46"/>
-      <c r="O168" s="46"/>
-      <c r="P168" s="46"/>
+      <c r="F168" s="42"/>
+      <c r="G168" s="42"/>
+      <c r="H168" s="42"/>
+      <c r="I168" s="42"/>
+      <c r="J168" s="42"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="42"/>
+      <c r="M168" s="42"/>
+      <c r="N168" s="42"/>
+      <c r="O168" s="42"/>
+      <c r="P168" s="42"/>
       <c r="Q168" s="11"/>
       <c r="R168" s="4"/>
       <c r="S168" s="4"/>
@@ -8017,17 +7999,17 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="46"/>
-      <c r="G169" s="46"/>
-      <c r="H169" s="46"/>
-      <c r="I169" s="46"/>
-      <c r="J169" s="46"/>
-      <c r="K169" s="46"/>
-      <c r="L169" s="46"/>
-      <c r="M169" s="46"/>
-      <c r="N169" s="46"/>
-      <c r="O169" s="46"/>
-      <c r="P169" s="46"/>
+      <c r="F169" s="42"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="42"/>
+      <c r="J169" s="42"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="42"/>
+      <c r="M169" s="42"/>
+      <c r="N169" s="42"/>
+      <c r="O169" s="42"/>
+      <c r="P169" s="42"/>
       <c r="Q169" s="11"/>
       <c r="R169" s="4"/>
       <c r="S169" s="4"/>
@@ -8055,17 +8037,17 @@
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="46"/>
-      <c r="G170" s="46"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="46"/>
-      <c r="J170" s="46"/>
-      <c r="K170" s="46"/>
-      <c r="L170" s="46"/>
-      <c r="M170" s="46"/>
-      <c r="N170" s="46"/>
-      <c r="O170" s="46"/>
-      <c r="P170" s="46"/>
+      <c r="F170" s="42"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="42"/>
+      <c r="I170" s="42"/>
+      <c r="J170" s="42"/>
+      <c r="K170" s="42"/>
+      <c r="L170" s="42"/>
+      <c r="M170" s="42"/>
+      <c r="N170" s="42"/>
+      <c r="O170" s="42"/>
+      <c r="P170" s="42"/>
       <c r="Q170" s="11"/>
       <c r="R170" s="4"/>
       <c r="S170" s="4"/>
@@ -8093,17 +8075,17 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="46"/>
-      <c r="J171" s="46"/>
-      <c r="K171" s="46"/>
-      <c r="L171" s="46"/>
-      <c r="M171" s="46"/>
-      <c r="N171" s="46"/>
-      <c r="O171" s="46"/>
-      <c r="P171" s="46"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="42"/>
+      <c r="J171" s="42"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="42"/>
+      <c r="M171" s="42"/>
+      <c r="N171" s="42"/>
+      <c r="O171" s="42"/>
+      <c r="P171" s="42"/>
       <c r="Q171" s="11"/>
       <c r="R171" s="4"/>
       <c r="S171" s="4"/>
@@ -8131,17 +8113,17 @@
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="46"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="46"/>
-      <c r="J172" s="46"/>
-      <c r="K172" s="46"/>
-      <c r="L172" s="46"/>
-      <c r="M172" s="46"/>
-      <c r="N172" s="46"/>
-      <c r="O172" s="46"/>
-      <c r="P172" s="46"/>
+      <c r="F172" s="42"/>
+      <c r="G172" s="42"/>
+      <c r="H172" s="42"/>
+      <c r="I172" s="42"/>
+      <c r="J172" s="42"/>
+      <c r="K172" s="42"/>
+      <c r="L172" s="42"/>
+      <c r="M172" s="42"/>
+      <c r="N172" s="42"/>
+      <c r="O172" s="42"/>
+      <c r="P172" s="42"/>
       <c r="Q172" s="11"/>
       <c r="R172" s="4"/>
       <c r="S172" s="4"/>
@@ -8169,17 +8151,17 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="46"/>
-      <c r="G173" s="46"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="46"/>
-      <c r="J173" s="46"/>
-      <c r="K173" s="46"/>
-      <c r="L173" s="46"/>
-      <c r="M173" s="46"/>
-      <c r="N173" s="46"/>
-      <c r="O173" s="46"/>
-      <c r="P173" s="46"/>
+      <c r="F173" s="42"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="42"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="42"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="42"/>
+      <c r="M173" s="42"/>
+      <c r="N173" s="42"/>
+      <c r="O173" s="42"/>
+      <c r="P173" s="42"/>
       <c r="Q173" s="11"/>
       <c r="R173" s="4"/>
       <c r="S173" s="4"/>
@@ -8207,17 +8189,17 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="46"/>
-      <c r="G174" s="46"/>
-      <c r="H174" s="46"/>
-      <c r="I174" s="46"/>
-      <c r="J174" s="46"/>
-      <c r="K174" s="46"/>
-      <c r="L174" s="46"/>
-      <c r="M174" s="46"/>
-      <c r="N174" s="46"/>
-      <c r="O174" s="46"/>
-      <c r="P174" s="46"/>
+      <c r="F174" s="42"/>
+      <c r="G174" s="42"/>
+      <c r="H174" s="42"/>
+      <c r="I174" s="42"/>
+      <c r="J174" s="42"/>
+      <c r="K174" s="42"/>
+      <c r="L174" s="42"/>
+      <c r="M174" s="42"/>
+      <c r="N174" s="42"/>
+      <c r="O174" s="42"/>
+      <c r="P174" s="42"/>
       <c r="Q174" s="11"/>
       <c r="R174" s="4"/>
       <c r="S174" s="4"/>
@@ -8245,17 +8227,17 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="46"/>
-      <c r="G175" s="46"/>
-      <c r="H175" s="46"/>
-      <c r="I175" s="46"/>
-      <c r="J175" s="46"/>
-      <c r="K175" s="46"/>
-      <c r="L175" s="46"/>
-      <c r="M175" s="46"/>
-      <c r="N175" s="46"/>
-      <c r="O175" s="46"/>
-      <c r="P175" s="46"/>
+      <c r="F175" s="42"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="42"/>
+      <c r="I175" s="42"/>
+      <c r="J175" s="42"/>
+      <c r="K175" s="42"/>
+      <c r="L175" s="42"/>
+      <c r="M175" s="42"/>
+      <c r="N175" s="42"/>
+      <c r="O175" s="42"/>
+      <c r="P175" s="42"/>
       <c r="Q175" s="11"/>
       <c r="R175" s="4"/>
       <c r="S175" s="4"/>
@@ -8283,17 +8265,17 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="46"/>
-      <c r="G176" s="46"/>
-      <c r="H176" s="46"/>
-      <c r="I176" s="46"/>
-      <c r="J176" s="46"/>
-      <c r="K176" s="46"/>
-      <c r="L176" s="46"/>
-      <c r="M176" s="46"/>
-      <c r="N176" s="46"/>
-      <c r="O176" s="46"/>
-      <c r="P176" s="46"/>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="42"/>
+      <c r="M176" s="42"/>
+      <c r="N176" s="42"/>
+      <c r="O176" s="42"/>
+      <c r="P176" s="42"/>
       <c r="Q176" s="11"/>
       <c r="R176" s="4"/>
       <c r="S176" s="4"/>
@@ -8321,17 +8303,17 @@
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="46"/>
-      <c r="G177" s="46"/>
-      <c r="H177" s="46"/>
-      <c r="I177" s="46"/>
-      <c r="J177" s="46"/>
-      <c r="K177" s="46"/>
-      <c r="L177" s="46"/>
-      <c r="M177" s="46"/>
-      <c r="N177" s="46"/>
-      <c r="O177" s="46"/>
-      <c r="P177" s="46"/>
+      <c r="F177" s="42"/>
+      <c r="G177" s="42"/>
+      <c r="H177" s="42"/>
+      <c r="I177" s="42"/>
+      <c r="J177" s="42"/>
+      <c r="K177" s="42"/>
+      <c r="L177" s="42"/>
+      <c r="M177" s="42"/>
+      <c r="N177" s="42"/>
+      <c r="O177" s="42"/>
+      <c r="P177" s="42"/>
       <c r="Q177" s="11"/>
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
@@ -8359,17 +8341,17 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
-      <c r="F178" s="46"/>
-      <c r="G178" s="46"/>
-      <c r="H178" s="46"/>
-      <c r="I178" s="46"/>
-      <c r="J178" s="46"/>
-      <c r="K178" s="46"/>
-      <c r="L178" s="46"/>
-      <c r="M178" s="46"/>
-      <c r="N178" s="46"/>
-      <c r="O178" s="46"/>
-      <c r="P178" s="46"/>
+      <c r="F178" s="42"/>
+      <c r="G178" s="42"/>
+      <c r="H178" s="42"/>
+      <c r="I178" s="42"/>
+      <c r="J178" s="42"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="42"/>
+      <c r="M178" s="42"/>
+      <c r="N178" s="42"/>
+      <c r="O178" s="42"/>
+      <c r="P178" s="42"/>
       <c r="Q178" s="11"/>
       <c r="R178" s="4"/>
       <c r="S178" s="4"/>
@@ -8397,17 +8379,17 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="46"/>
-      <c r="H179" s="46"/>
-      <c r="I179" s="46"/>
-      <c r="J179" s="46"/>
-      <c r="K179" s="46"/>
-      <c r="L179" s="46"/>
-      <c r="M179" s="46"/>
-      <c r="N179" s="46"/>
-      <c r="O179" s="46"/>
-      <c r="P179" s="46"/>
+      <c r="F179" s="42"/>
+      <c r="G179" s="42"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="42"/>
+      <c r="J179" s="42"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="42"/>
+      <c r="M179" s="42"/>
+      <c r="N179" s="42"/>
+      <c r="O179" s="42"/>
+      <c r="P179" s="42"/>
       <c r="Q179" s="11"/>
       <c r="R179" s="4"/>
       <c r="S179" s="4"/>
@@ -8435,17 +8417,17 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="46"/>
-      <c r="G180" s="46"/>
-      <c r="H180" s="46"/>
-      <c r="I180" s="46"/>
-      <c r="J180" s="46"/>
-      <c r="K180" s="46"/>
-      <c r="L180" s="46"/>
-      <c r="M180" s="46"/>
-      <c r="N180" s="46"/>
-      <c r="O180" s="46"/>
-      <c r="P180" s="46"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="42"/>
+      <c r="I180" s="42"/>
+      <c r="J180" s="42"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="42"/>
+      <c r="M180" s="42"/>
+      <c r="N180" s="42"/>
+      <c r="O180" s="42"/>
+      <c r="P180" s="42"/>
       <c r="Q180" s="11"/>
       <c r="R180" s="4"/>
       <c r="S180" s="4"/>
@@ -8473,17 +8455,17 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
-      <c r="F181" s="46"/>
-      <c r="G181" s="46"/>
-      <c r="H181" s="46"/>
-      <c r="I181" s="46"/>
-      <c r="J181" s="46"/>
-      <c r="K181" s="46"/>
-      <c r="L181" s="46"/>
-      <c r="M181" s="46"/>
-      <c r="N181" s="46"/>
-      <c r="O181" s="46"/>
-      <c r="P181" s="46"/>
+      <c r="F181" s="42"/>
+      <c r="G181" s="42"/>
+      <c r="H181" s="42"/>
+      <c r="I181" s="42"/>
+      <c r="J181" s="42"/>
+      <c r="K181" s="42"/>
+      <c r="L181" s="42"/>
+      <c r="M181" s="42"/>
+      <c r="N181" s="42"/>
+      <c r="O181" s="42"/>
+      <c r="P181" s="42"/>
       <c r="Q181" s="11"/>
       <c r="R181" s="4"/>
       <c r="S181" s="4"/>
@@ -8511,17 +8493,17 @@
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
-      <c r="F182" s="46"/>
-      <c r="G182" s="46"/>
-      <c r="H182" s="46"/>
-      <c r="I182" s="46"/>
-      <c r="J182" s="46"/>
-      <c r="K182" s="46"/>
-      <c r="L182" s="46"/>
-      <c r="M182" s="46"/>
-      <c r="N182" s="46"/>
-      <c r="O182" s="46"/>
-      <c r="P182" s="46"/>
+      <c r="F182" s="42"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="42"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="42"/>
+      <c r="K182" s="42"/>
+      <c r="L182" s="42"/>
+      <c r="M182" s="42"/>
+      <c r="N182" s="42"/>
+      <c r="O182" s="42"/>
+      <c r="P182" s="42"/>
       <c r="Q182" s="11"/>
       <c r="R182" s="4"/>
       <c r="S182" s="4"/>
@@ -8549,17 +8531,17 @@
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
-      <c r="F183" s="46"/>
-      <c r="G183" s="46"/>
-      <c r="H183" s="46"/>
-      <c r="I183" s="46"/>
-      <c r="J183" s="46"/>
-      <c r="K183" s="46"/>
-      <c r="L183" s="46"/>
-      <c r="M183" s="46"/>
-      <c r="N183" s="46"/>
-      <c r="O183" s="46"/>
-      <c r="P183" s="46"/>
+      <c r="F183" s="42"/>
+      <c r="G183" s="42"/>
+      <c r="H183" s="42"/>
+      <c r="I183" s="42"/>
+      <c r="J183" s="42"/>
+      <c r="K183" s="42"/>
+      <c r="L183" s="42"/>
+      <c r="M183" s="42"/>
+      <c r="N183" s="42"/>
+      <c r="O183" s="42"/>
+      <c r="P183" s="42"/>
       <c r="Q183" s="11"/>
       <c r="R183" s="4"/>
       <c r="S183" s="4"/>
@@ -8587,17 +8569,17 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
-      <c r="F184" s="46"/>
-      <c r="G184" s="46"/>
-      <c r="H184" s="46"/>
-      <c r="I184" s="46"/>
-      <c r="J184" s="46"/>
-      <c r="K184" s="46"/>
-      <c r="L184" s="46"/>
-      <c r="M184" s="46"/>
-      <c r="N184" s="46"/>
-      <c r="O184" s="46"/>
-      <c r="P184" s="46"/>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="42"/>
+      <c r="J184" s="42"/>
+      <c r="K184" s="42"/>
+      <c r="L184" s="42"/>
+      <c r="M184" s="42"/>
+      <c r="N184" s="42"/>
+      <c r="O184" s="42"/>
+      <c r="P184" s="42"/>
       <c r="Q184" s="11"/>
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
@@ -8625,17 +8607,17 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="46"/>
-      <c r="H185" s="46"/>
-      <c r="I185" s="46"/>
-      <c r="J185" s="46"/>
-      <c r="K185" s="46"/>
-      <c r="L185" s="46"/>
-      <c r="M185" s="46"/>
-      <c r="N185" s="46"/>
-      <c r="O185" s="46"/>
-      <c r="P185" s="46"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="42"/>
+      <c r="I185" s="42"/>
+      <c r="J185" s="42"/>
+      <c r="K185" s="42"/>
+      <c r="L185" s="42"/>
+      <c r="M185" s="42"/>
+      <c r="N185" s="42"/>
+      <c r="O185" s="42"/>
+      <c r="P185" s="42"/>
       <c r="Q185" s="11"/>
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
@@ -8663,17 +8645,17 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="46"/>
-      <c r="G186" s="46"/>
-      <c r="H186" s="46"/>
-      <c r="I186" s="46"/>
-      <c r="J186" s="46"/>
-      <c r="K186" s="46"/>
-      <c r="L186" s="46"/>
-      <c r="M186" s="46"/>
-      <c r="N186" s="46"/>
-      <c r="O186" s="46"/>
-      <c r="P186" s="46"/>
+      <c r="F186" s="42"/>
+      <c r="G186" s="42"/>
+      <c r="H186" s="42"/>
+      <c r="I186" s="42"/>
+      <c r="J186" s="42"/>
+      <c r="K186" s="42"/>
+      <c r="L186" s="42"/>
+      <c r="M186" s="42"/>
+      <c r="N186" s="42"/>
+      <c r="O186" s="42"/>
+      <c r="P186" s="42"/>
       <c r="Q186" s="11"/>
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
@@ -8701,17 +8683,17 @@
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="46"/>
-      <c r="G187" s="46"/>
-      <c r="H187" s="46"/>
-      <c r="I187" s="46"/>
-      <c r="J187" s="46"/>
-      <c r="K187" s="46"/>
-      <c r="L187" s="46"/>
-      <c r="M187" s="46"/>
-      <c r="N187" s="46"/>
-      <c r="O187" s="46"/>
-      <c r="P187" s="46"/>
+      <c r="F187" s="42"/>
+      <c r="G187" s="42"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="42"/>
+      <c r="J187" s="42"/>
+      <c r="K187" s="42"/>
+      <c r="L187" s="42"/>
+      <c r="M187" s="42"/>
+      <c r="N187" s="42"/>
+      <c r="O187" s="42"/>
+      <c r="P187" s="42"/>
       <c r="Q187" s="11"/>
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
@@ -8739,17 +8721,17 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="46"/>
-      <c r="G188" s="46"/>
-      <c r="H188" s="46"/>
-      <c r="I188" s="46"/>
-      <c r="J188" s="46"/>
-      <c r="K188" s="46"/>
-      <c r="L188" s="46"/>
-      <c r="M188" s="46"/>
-      <c r="N188" s="46"/>
-      <c r="O188" s="46"/>
-      <c r="P188" s="46"/>
+      <c r="F188" s="42"/>
+      <c r="G188" s="42"/>
+      <c r="H188" s="42"/>
+      <c r="I188" s="42"/>
+      <c r="J188" s="42"/>
+      <c r="K188" s="42"/>
+      <c r="L188" s="42"/>
+      <c r="M188" s="42"/>
+      <c r="N188" s="42"/>
+      <c r="O188" s="42"/>
+      <c r="P188" s="42"/>
       <c r="Q188" s="11"/>
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
@@ -8777,17 +8759,17 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="46"/>
-      <c r="G189" s="46"/>
-      <c r="H189" s="46"/>
-      <c r="I189" s="46"/>
-      <c r="J189" s="46"/>
-      <c r="K189" s="46"/>
-      <c r="L189" s="46"/>
-      <c r="M189" s="46"/>
-      <c r="N189" s="46"/>
-      <c r="O189" s="46"/>
-      <c r="P189" s="46"/>
+      <c r="F189" s="42"/>
+      <c r="G189" s="42"/>
+      <c r="H189" s="42"/>
+      <c r="I189" s="42"/>
+      <c r="J189" s="42"/>
+      <c r="K189" s="42"/>
+      <c r="L189" s="42"/>
+      <c r="M189" s="42"/>
+      <c r="N189" s="42"/>
+      <c r="O189" s="42"/>
+      <c r="P189" s="42"/>
       <c r="Q189" s="11"/>
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
@@ -8815,17 +8797,17 @@
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
-      <c r="F190" s="46"/>
-      <c r="G190" s="46"/>
-      <c r="H190" s="46"/>
-      <c r="I190" s="46"/>
-      <c r="J190" s="46"/>
-      <c r="K190" s="46"/>
-      <c r="L190" s="46"/>
-      <c r="M190" s="46"/>
-      <c r="N190" s="46"/>
-      <c r="O190" s="46"/>
-      <c r="P190" s="46"/>
+      <c r="F190" s="42"/>
+      <c r="G190" s="42"/>
+      <c r="H190" s="42"/>
+      <c r="I190" s="42"/>
+      <c r="J190" s="42"/>
+      <c r="K190" s="42"/>
+      <c r="L190" s="42"/>
+      <c r="M190" s="42"/>
+      <c r="N190" s="42"/>
+      <c r="O190" s="42"/>
+      <c r="P190" s="42"/>
       <c r="Q190" s="11"/>
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
@@ -8853,17 +8835,17 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="46"/>
-      <c r="G191" s="46"/>
-      <c r="H191" s="46"/>
-      <c r="I191" s="46"/>
-      <c r="J191" s="46"/>
-      <c r="K191" s="46"/>
-      <c r="L191" s="46"/>
-      <c r="M191" s="46"/>
-      <c r="N191" s="46"/>
-      <c r="O191" s="46"/>
-      <c r="P191" s="46"/>
+      <c r="F191" s="42"/>
+      <c r="G191" s="42"/>
+      <c r="H191" s="42"/>
+      <c r="I191" s="42"/>
+      <c r="J191" s="42"/>
+      <c r="K191" s="42"/>
+      <c r="L191" s="42"/>
+      <c r="M191" s="42"/>
+      <c r="N191" s="42"/>
+      <c r="O191" s="42"/>
+      <c r="P191" s="42"/>
       <c r="Q191" s="11"/>
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
@@ -8891,17 +8873,17 @@
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="46"/>
-      <c r="G192" s="46"/>
-      <c r="H192" s="46"/>
-      <c r="I192" s="46"/>
-      <c r="J192" s="46"/>
-      <c r="K192" s="46"/>
-      <c r="L192" s="46"/>
-      <c r="M192" s="46"/>
-      <c r="N192" s="46"/>
-      <c r="O192" s="46"/>
-      <c r="P192" s="46"/>
+      <c r="F192" s="42"/>
+      <c r="G192" s="42"/>
+      <c r="H192" s="42"/>
+      <c r="I192" s="42"/>
+      <c r="J192" s="42"/>
+      <c r="K192" s="42"/>
+      <c r="L192" s="42"/>
+      <c r="M192" s="42"/>
+      <c r="N192" s="42"/>
+      <c r="O192" s="42"/>
+      <c r="P192" s="42"/>
       <c r="Q192" s="11"/>
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
@@ -8929,17 +8911,17 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
-      <c r="F193" s="46"/>
-      <c r="G193" s="46"/>
-      <c r="H193" s="46"/>
-      <c r="I193" s="46"/>
-      <c r="J193" s="46"/>
-      <c r="K193" s="46"/>
-      <c r="L193" s="46"/>
-      <c r="M193" s="46"/>
-      <c r="N193" s="46"/>
-      <c r="O193" s="46"/>
-      <c r="P193" s="46"/>
+      <c r="F193" s="42"/>
+      <c r="G193" s="42"/>
+      <c r="H193" s="42"/>
+      <c r="I193" s="42"/>
+      <c r="J193" s="42"/>
+      <c r="K193" s="42"/>
+      <c r="L193" s="42"/>
+      <c r="M193" s="42"/>
+      <c r="N193" s="42"/>
+      <c r="O193" s="42"/>
+      <c r="P193" s="42"/>
       <c r="Q193" s="11"/>
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
@@ -8967,17 +8949,17 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="46"/>
-      <c r="G194" s="46"/>
-      <c r="H194" s="46"/>
-      <c r="I194" s="46"/>
-      <c r="J194" s="46"/>
-      <c r="K194" s="46"/>
-      <c r="L194" s="46"/>
-      <c r="M194" s="46"/>
-      <c r="N194" s="46"/>
-      <c r="O194" s="46"/>
-      <c r="P194" s="46"/>
+      <c r="F194" s="42"/>
+      <c r="G194" s="42"/>
+      <c r="H194" s="42"/>
+      <c r="I194" s="42"/>
+      <c r="J194" s="42"/>
+      <c r="K194" s="42"/>
+      <c r="L194" s="42"/>
+      <c r="M194" s="42"/>
+      <c r="N194" s="42"/>
+      <c r="O194" s="42"/>
+      <c r="P194" s="42"/>
       <c r="Q194" s="11"/>
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
@@ -9005,17 +8987,17 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="46"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="46"/>
-      <c r="J195" s="46"/>
-      <c r="K195" s="46"/>
-      <c r="L195" s="46"/>
-      <c r="M195" s="46"/>
-      <c r="N195" s="46"/>
-      <c r="O195" s="46"/>
-      <c r="P195" s="46"/>
+      <c r="F195" s="42"/>
+      <c r="G195" s="42"/>
+      <c r="H195" s="42"/>
+      <c r="I195" s="42"/>
+      <c r="J195" s="42"/>
+      <c r="K195" s="42"/>
+      <c r="L195" s="42"/>
+      <c r="M195" s="42"/>
+      <c r="N195" s="42"/>
+      <c r="O195" s="42"/>
+      <c r="P195" s="42"/>
       <c r="Q195" s="11"/>
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
@@ -9043,17 +9025,17 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="46"/>
-      <c r="G196" s="46"/>
-      <c r="H196" s="46"/>
-      <c r="I196" s="46"/>
-      <c r="J196" s="46"/>
-      <c r="K196" s="46"/>
-      <c r="L196" s="46"/>
-      <c r="M196" s="46"/>
-      <c r="N196" s="46"/>
-      <c r="O196" s="46"/>
-      <c r="P196" s="46"/>
+      <c r="F196" s="42"/>
+      <c r="G196" s="42"/>
+      <c r="H196" s="42"/>
+      <c r="I196" s="42"/>
+      <c r="J196" s="42"/>
+      <c r="K196" s="42"/>
+      <c r="L196" s="42"/>
+      <c r="M196" s="42"/>
+      <c r="N196" s="42"/>
+      <c r="O196" s="42"/>
+      <c r="P196" s="42"/>
       <c r="Q196" s="11"/>
       <c r="R196" s="4"/>
       <c r="S196" s="4"/>
@@ -9081,17 +9063,17 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="46"/>
-      <c r="G197" s="46"/>
-      <c r="H197" s="46"/>
-      <c r="I197" s="46"/>
-      <c r="J197" s="46"/>
-      <c r="K197" s="46"/>
-      <c r="L197" s="46"/>
-      <c r="M197" s="46"/>
-      <c r="N197" s="46"/>
-      <c r="O197" s="46"/>
-      <c r="P197" s="46"/>
+      <c r="F197" s="42"/>
+      <c r="G197" s="42"/>
+      <c r="H197" s="42"/>
+      <c r="I197" s="42"/>
+      <c r="J197" s="42"/>
+      <c r="K197" s="42"/>
+      <c r="L197" s="42"/>
+      <c r="M197" s="42"/>
+      <c r="N197" s="42"/>
+      <c r="O197" s="42"/>
+      <c r="P197" s="42"/>
       <c r="Q197" s="11"/>
       <c r="R197" s="4"/>
       <c r="S197" s="4"/>
@@ -9119,17 +9101,17 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="46"/>
-      <c r="H198" s="46"/>
-      <c r="I198" s="46"/>
-      <c r="J198" s="46"/>
-      <c r="K198" s="46"/>
-      <c r="L198" s="46"/>
-      <c r="M198" s="46"/>
-      <c r="N198" s="46"/>
-      <c r="O198" s="46"/>
-      <c r="P198" s="46"/>
+      <c r="F198" s="42"/>
+      <c r="G198" s="42"/>
+      <c r="H198" s="42"/>
+      <c r="I198" s="42"/>
+      <c r="J198" s="42"/>
+      <c r="K198" s="42"/>
+      <c r="L198" s="42"/>
+      <c r="M198" s="42"/>
+      <c r="N198" s="42"/>
+      <c r="O198" s="42"/>
+      <c r="P198" s="42"/>
       <c r="Q198" s="11"/>
       <c r="R198" s="4"/>
       <c r="S198" s="4"/>
@@ -9157,17 +9139,17 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="46"/>
-      <c r="G199" s="46"/>
-      <c r="H199" s="46"/>
-      <c r="I199" s="46"/>
-      <c r="J199" s="46"/>
-      <c r="K199" s="46"/>
-      <c r="L199" s="46"/>
-      <c r="M199" s="46"/>
-      <c r="N199" s="46"/>
-      <c r="O199" s="46"/>
-      <c r="P199" s="46"/>
+      <c r="F199" s="42"/>
+      <c r="G199" s="42"/>
+      <c r="H199" s="42"/>
+      <c r="I199" s="42"/>
+      <c r="J199" s="42"/>
+      <c r="K199" s="42"/>
+      <c r="L199" s="42"/>
+      <c r="M199" s="42"/>
+      <c r="N199" s="42"/>
+      <c r="O199" s="42"/>
+      <c r="P199" s="42"/>
       <c r="Q199" s="11"/>
       <c r="R199" s="4"/>
       <c r="S199" s="4"/>
@@ -9195,17 +9177,17 @@
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="46"/>
-      <c r="G200" s="46"/>
-      <c r="H200" s="46"/>
-      <c r="I200" s="46"/>
-      <c r="J200" s="46"/>
-      <c r="K200" s="46"/>
-      <c r="L200" s="46"/>
-      <c r="M200" s="46"/>
-      <c r="N200" s="46"/>
-      <c r="O200" s="46"/>
-      <c r="P200" s="46"/>
+      <c r="F200" s="42"/>
+      <c r="G200" s="42"/>
+      <c r="H200" s="42"/>
+      <c r="I200" s="42"/>
+      <c r="J200" s="42"/>
+      <c r="K200" s="42"/>
+      <c r="L200" s="42"/>
+      <c r="M200" s="42"/>
+      <c r="N200" s="42"/>
+      <c r="O200" s="42"/>
+      <c r="P200" s="42"/>
       <c r="Q200" s="11"/>
       <c r="R200" s="4"/>
       <c r="S200" s="4"/>
@@ -9233,17 +9215,17 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="46"/>
-      <c r="G201" s="46"/>
-      <c r="H201" s="46"/>
-      <c r="I201" s="46"/>
-      <c r="J201" s="46"/>
-      <c r="K201" s="46"/>
-      <c r="L201" s="46"/>
-      <c r="M201" s="46"/>
-      <c r="N201" s="46"/>
-      <c r="O201" s="46"/>
-      <c r="P201" s="46"/>
+      <c r="F201" s="42"/>
+      <c r="G201" s="42"/>
+      <c r="H201" s="42"/>
+      <c r="I201" s="42"/>
+      <c r="J201" s="42"/>
+      <c r="K201" s="42"/>
+      <c r="L201" s="42"/>
+      <c r="M201" s="42"/>
+      <c r="N201" s="42"/>
+      <c r="O201" s="42"/>
+      <c r="P201" s="42"/>
       <c r="Q201" s="11"/>
       <c r="R201" s="4"/>
       <c r="S201" s="4"/>
@@ -9271,17 +9253,17 @@
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
-      <c r="F202" s="46"/>
-      <c r="G202" s="46"/>
-      <c r="H202" s="46"/>
-      <c r="I202" s="46"/>
-      <c r="J202" s="46"/>
-      <c r="K202" s="46"/>
-      <c r="L202" s="46"/>
-      <c r="M202" s="46"/>
-      <c r="N202" s="46"/>
-      <c r="O202" s="46"/>
-      <c r="P202" s="46"/>
+      <c r="F202" s="42"/>
+      <c r="G202" s="42"/>
+      <c r="H202" s="42"/>
+      <c r="I202" s="42"/>
+      <c r="J202" s="42"/>
+      <c r="K202" s="42"/>
+      <c r="L202" s="42"/>
+      <c r="M202" s="42"/>
+      <c r="N202" s="42"/>
+      <c r="O202" s="42"/>
+      <c r="P202" s="42"/>
       <c r="Q202" s="11"/>
       <c r="R202" s="4"/>
       <c r="S202" s="4"/>
@@ -9309,17 +9291,17 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="46"/>
-      <c r="G203" s="46"/>
-      <c r="H203" s="46"/>
-      <c r="I203" s="46"/>
-      <c r="J203" s="46"/>
-      <c r="K203" s="46"/>
-      <c r="L203" s="46"/>
-      <c r="M203" s="46"/>
-      <c r="N203" s="46"/>
-      <c r="O203" s="46"/>
-      <c r="P203" s="46"/>
+      <c r="F203" s="42"/>
+      <c r="G203" s="42"/>
+      <c r="H203" s="42"/>
+      <c r="I203" s="42"/>
+      <c r="J203" s="42"/>
+      <c r="K203" s="42"/>
+      <c r="L203" s="42"/>
+      <c r="M203" s="42"/>
+      <c r="N203" s="42"/>
+      <c r="O203" s="42"/>
+      <c r="P203" s="42"/>
       <c r="Q203" s="11"/>
       <c r="R203" s="4"/>
       <c r="S203" s="4"/>
@@ -9347,17 +9329,17 @@
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="46"/>
-      <c r="G204" s="46"/>
-      <c r="H204" s="46"/>
-      <c r="I204" s="46"/>
-      <c r="J204" s="46"/>
-      <c r="K204" s="46"/>
-      <c r="L204" s="46"/>
-      <c r="M204" s="46"/>
-      <c r="N204" s="46"/>
-      <c r="O204" s="46"/>
-      <c r="P204" s="46"/>
+      <c r="F204" s="42"/>
+      <c r="G204" s="42"/>
+      <c r="H204" s="42"/>
+      <c r="I204" s="42"/>
+      <c r="J204" s="42"/>
+      <c r="K204" s="42"/>
+      <c r="L204" s="42"/>
+      <c r="M204" s="42"/>
+      <c r="N204" s="42"/>
+      <c r="O204" s="42"/>
+      <c r="P204" s="42"/>
       <c r="Q204" s="11"/>
       <c r="R204" s="4"/>
       <c r="S204" s="4"/>
@@ -9385,17 +9367,17 @@
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
-      <c r="F205" s="46"/>
-      <c r="G205" s="46"/>
-      <c r="H205" s="46"/>
-      <c r="I205" s="46"/>
-      <c r="J205" s="46"/>
-      <c r="K205" s="46"/>
-      <c r="L205" s="46"/>
-      <c r="M205" s="46"/>
-      <c r="N205" s="46"/>
-      <c r="O205" s="46"/>
-      <c r="P205" s="46"/>
+      <c r="F205" s="42"/>
+      <c r="G205" s="42"/>
+      <c r="H205" s="42"/>
+      <c r="I205" s="42"/>
+      <c r="J205" s="42"/>
+      <c r="K205" s="42"/>
+      <c r="L205" s="42"/>
+      <c r="M205" s="42"/>
+      <c r="N205" s="42"/>
+      <c r="O205" s="42"/>
+      <c r="P205" s="42"/>
       <c r="Q205" s="11"/>
       <c r="R205" s="4"/>
       <c r="S205" s="4"/>
@@ -9423,17 +9405,17 @@
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="46"/>
-      <c r="G206" s="46"/>
-      <c r="H206" s="46"/>
-      <c r="I206" s="46"/>
-      <c r="J206" s="46"/>
-      <c r="K206" s="46"/>
-      <c r="L206" s="46"/>
-      <c r="M206" s="46"/>
-      <c r="N206" s="46"/>
-      <c r="O206" s="46"/>
-      <c r="P206" s="46"/>
+      <c r="F206" s="42"/>
+      <c r="G206" s="42"/>
+      <c r="H206" s="42"/>
+      <c r="I206" s="42"/>
+      <c r="J206" s="42"/>
+      <c r="K206" s="42"/>
+      <c r="L206" s="42"/>
+      <c r="M206" s="42"/>
+      <c r="N206" s="42"/>
+      <c r="O206" s="42"/>
+      <c r="P206" s="42"/>
       <c r="Q206" s="11"/>
       <c r="R206" s="4"/>
       <c r="S206" s="4"/>
@@ -9461,17 +9443,17 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="46"/>
-      <c r="G207" s="46"/>
-      <c r="H207" s="46"/>
-      <c r="I207" s="46"/>
-      <c r="J207" s="46"/>
-      <c r="K207" s="46"/>
-      <c r="L207" s="46"/>
-      <c r="M207" s="46"/>
-      <c r="N207" s="46"/>
-      <c r="O207" s="46"/>
-      <c r="P207" s="46"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="42"/>
+      <c r="J207" s="42"/>
+      <c r="K207" s="42"/>
+      <c r="L207" s="42"/>
+      <c r="M207" s="42"/>
+      <c r="N207" s="42"/>
+      <c r="O207" s="42"/>
+      <c r="P207" s="42"/>
       <c r="Q207" s="11"/>
       <c r="R207" s="4"/>
       <c r="S207" s="4"/>
@@ -9499,17 +9481,17 @@
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="46"/>
-      <c r="G208" s="46"/>
-      <c r="H208" s="46"/>
-      <c r="I208" s="46"/>
-      <c r="J208" s="46"/>
-      <c r="K208" s="46"/>
-      <c r="L208" s="46"/>
-      <c r="M208" s="46"/>
-      <c r="N208" s="46"/>
-      <c r="O208" s="46"/>
-      <c r="P208" s="46"/>
+      <c r="F208" s="42"/>
+      <c r="G208" s="42"/>
+      <c r="H208" s="42"/>
+      <c r="I208" s="42"/>
+      <c r="J208" s="42"/>
+      <c r="K208" s="42"/>
+      <c r="L208" s="42"/>
+      <c r="M208" s="42"/>
+      <c r="N208" s="42"/>
+      <c r="O208" s="42"/>
+      <c r="P208" s="42"/>
       <c r="Q208" s="11"/>
       <c r="R208" s="4"/>
       <c r="S208" s="4"/>
@@ -9537,17 +9519,17 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="46"/>
-      <c r="G209" s="46"/>
-      <c r="H209" s="46"/>
-      <c r="I209" s="46"/>
-      <c r="J209" s="46"/>
-      <c r="K209" s="46"/>
-      <c r="L209" s="46"/>
-      <c r="M209" s="46"/>
-      <c r="N209" s="46"/>
-      <c r="O209" s="46"/>
-      <c r="P209" s="46"/>
+      <c r="F209" s="42"/>
+      <c r="G209" s="42"/>
+      <c r="H209" s="42"/>
+      <c r="I209" s="42"/>
+      <c r="J209" s="42"/>
+      <c r="K209" s="42"/>
+      <c r="L209" s="42"/>
+      <c r="M209" s="42"/>
+      <c r="N209" s="42"/>
+      <c r="O209" s="42"/>
+      <c r="P209" s="42"/>
       <c r="Q209" s="11"/>
       <c r="R209" s="4"/>
       <c r="S209" s="4"/>
@@ -9575,17 +9557,17 @@
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="46"/>
-      <c r="G210" s="46"/>
-      <c r="H210" s="46"/>
-      <c r="I210" s="46"/>
-      <c r="J210" s="46"/>
-      <c r="K210" s="46"/>
-      <c r="L210" s="46"/>
-      <c r="M210" s="46"/>
-      <c r="N210" s="46"/>
-      <c r="O210" s="46"/>
-      <c r="P210" s="46"/>
+      <c r="F210" s="42"/>
+      <c r="G210" s="42"/>
+      <c r="H210" s="42"/>
+      <c r="I210" s="42"/>
+      <c r="J210" s="42"/>
+      <c r="K210" s="42"/>
+      <c r="L210" s="42"/>
+      <c r="M210" s="42"/>
+      <c r="N210" s="42"/>
+      <c r="O210" s="42"/>
+      <c r="P210" s="42"/>
       <c r="Q210" s="11"/>
       <c r="R210" s="4"/>
       <c r="S210" s="4"/>
@@ -9613,17 +9595,17 @@
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="46"/>
-      <c r="G211" s="46"/>
-      <c r="H211" s="46"/>
-      <c r="I211" s="46"/>
-      <c r="J211" s="46"/>
-      <c r="K211" s="46"/>
-      <c r="L211" s="46"/>
-      <c r="M211" s="46"/>
-      <c r="N211" s="46"/>
-      <c r="O211" s="46"/>
-      <c r="P211" s="46"/>
+      <c r="F211" s="42"/>
+      <c r="G211" s="42"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="42"/>
+      <c r="J211" s="42"/>
+      <c r="K211" s="42"/>
+      <c r="L211" s="42"/>
+      <c r="M211" s="42"/>
+      <c r="N211" s="42"/>
+      <c r="O211" s="42"/>
+      <c r="P211" s="42"/>
       <c r="Q211" s="11"/>
       <c r="R211" s="4"/>
       <c r="S211" s="4"/>
@@ -9651,17 +9633,17 @@
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
-      <c r="F212" s="46"/>
-      <c r="G212" s="46"/>
-      <c r="H212" s="46"/>
-      <c r="I212" s="46"/>
-      <c r="J212" s="46"/>
-      <c r="K212" s="46"/>
-      <c r="L212" s="46"/>
-      <c r="M212" s="46"/>
-      <c r="N212" s="46"/>
-      <c r="O212" s="46"/>
-      <c r="P212" s="46"/>
+      <c r="F212" s="42"/>
+      <c r="G212" s="42"/>
+      <c r="H212" s="42"/>
+      <c r="I212" s="42"/>
+      <c r="J212" s="42"/>
+      <c r="K212" s="42"/>
+      <c r="L212" s="42"/>
+      <c r="M212" s="42"/>
+      <c r="N212" s="42"/>
+      <c r="O212" s="42"/>
+      <c r="P212" s="42"/>
       <c r="Q212" s="11"/>
       <c r="R212" s="4"/>
       <c r="S212" s="4"/>
@@ -9689,17 +9671,17 @@
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
-      <c r="F213" s="46"/>
-      <c r="G213" s="46"/>
-      <c r="H213" s="46"/>
-      <c r="I213" s="46"/>
-      <c r="J213" s="46"/>
-      <c r="K213" s="46"/>
-      <c r="L213" s="46"/>
-      <c r="M213" s="46"/>
-      <c r="N213" s="46"/>
-      <c r="O213" s="46"/>
-      <c r="P213" s="46"/>
+      <c r="F213" s="42"/>
+      <c r="G213" s="42"/>
+      <c r="H213" s="42"/>
+      <c r="I213" s="42"/>
+      <c r="J213" s="42"/>
+      <c r="K213" s="42"/>
+      <c r="L213" s="42"/>
+      <c r="M213" s="42"/>
+      <c r="N213" s="42"/>
+      <c r="O213" s="42"/>
+      <c r="P213" s="42"/>
       <c r="Q213" s="11"/>
       <c r="R213" s="4"/>
       <c r="S213" s="4"/>
@@ -9727,17 +9709,17 @@
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
-      <c r="F214" s="46"/>
-      <c r="G214" s="46"/>
-      <c r="H214" s="46"/>
-      <c r="I214" s="46"/>
-      <c r="J214" s="46"/>
-      <c r="K214" s="46"/>
-      <c r="L214" s="46"/>
-      <c r="M214" s="46"/>
-      <c r="N214" s="46"/>
-      <c r="O214" s="46"/>
-      <c r="P214" s="46"/>
+      <c r="F214" s="42"/>
+      <c r="G214" s="42"/>
+      <c r="H214" s="42"/>
+      <c r="I214" s="42"/>
+      <c r="J214" s="42"/>
+      <c r="K214" s="42"/>
+      <c r="L214" s="42"/>
+      <c r="M214" s="42"/>
+      <c r="N214" s="42"/>
+      <c r="O214" s="42"/>
+      <c r="P214" s="42"/>
       <c r="Q214" s="11"/>
       <c r="R214" s="4"/>
       <c r="S214" s="4"/>
@@ -9765,17 +9747,17 @@
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
-      <c r="F215" s="46"/>
-      <c r="G215" s="46"/>
-      <c r="H215" s="46"/>
-      <c r="I215" s="46"/>
-      <c r="J215" s="46"/>
-      <c r="K215" s="46"/>
-      <c r="L215" s="46"/>
-      <c r="M215" s="46"/>
-      <c r="N215" s="46"/>
-      <c r="O215" s="46"/>
-      <c r="P215" s="46"/>
+      <c r="F215" s="42"/>
+      <c r="G215" s="42"/>
+      <c r="H215" s="42"/>
+      <c r="I215" s="42"/>
+      <c r="J215" s="42"/>
+      <c r="K215" s="42"/>
+      <c r="L215" s="42"/>
+      <c r="M215" s="42"/>
+      <c r="N215" s="42"/>
+      <c r="O215" s="42"/>
+      <c r="P215" s="42"/>
       <c r="Q215" s="11"/>
       <c r="R215" s="4"/>
       <c r="S215" s="4"/>
@@ -9803,17 +9785,17 @@
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
-      <c r="F216" s="46"/>
-      <c r="G216" s="46"/>
-      <c r="H216" s="46"/>
-      <c r="I216" s="46"/>
-      <c r="J216" s="46"/>
-      <c r="K216" s="46"/>
-      <c r="L216" s="46"/>
-      <c r="M216" s="46"/>
-      <c r="N216" s="46"/>
-      <c r="O216" s="46"/>
-      <c r="P216" s="46"/>
+      <c r="F216" s="42"/>
+      <c r="G216" s="42"/>
+      <c r="H216" s="42"/>
+      <c r="I216" s="42"/>
+      <c r="J216" s="42"/>
+      <c r="K216" s="42"/>
+      <c r="L216" s="42"/>
+      <c r="M216" s="42"/>
+      <c r="N216" s="42"/>
+      <c r="O216" s="42"/>
+      <c r="P216" s="42"/>
       <c r="Q216" s="11"/>
       <c r="R216" s="4"/>
       <c r="S216" s="4"/>
@@ -9841,17 +9823,17 @@
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="46"/>
-      <c r="G217" s="46"/>
-      <c r="H217" s="46"/>
-      <c r="I217" s="46"/>
-      <c r="J217" s="46"/>
-      <c r="K217" s="46"/>
-      <c r="L217" s="46"/>
-      <c r="M217" s="46"/>
-      <c r="N217" s="46"/>
-      <c r="O217" s="46"/>
-      <c r="P217" s="46"/>
+      <c r="F217" s="42"/>
+      <c r="G217" s="42"/>
+      <c r="H217" s="42"/>
+      <c r="I217" s="42"/>
+      <c r="J217" s="42"/>
+      <c r="K217" s="42"/>
+      <c r="L217" s="42"/>
+      <c r="M217" s="42"/>
+      <c r="N217" s="42"/>
+      <c r="O217" s="42"/>
+      <c r="P217" s="42"/>
       <c r="Q217" s="11"/>
       <c r="R217" s="4"/>
       <c r="S217" s="4"/>
@@ -9879,17 +9861,17 @@
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="46"/>
-      <c r="G218" s="46"/>
-      <c r="H218" s="46"/>
-      <c r="I218" s="46"/>
-      <c r="J218" s="46"/>
-      <c r="K218" s="46"/>
-      <c r="L218" s="46"/>
-      <c r="M218" s="46"/>
-      <c r="N218" s="46"/>
-      <c r="O218" s="46"/>
-      <c r="P218" s="46"/>
+      <c r="F218" s="42"/>
+      <c r="G218" s="42"/>
+      <c r="H218" s="42"/>
+      <c r="I218" s="42"/>
+      <c r="J218" s="42"/>
+      <c r="K218" s="42"/>
+      <c r="L218" s="42"/>
+      <c r="M218" s="42"/>
+      <c r="N218" s="42"/>
+      <c r="O218" s="42"/>
+      <c r="P218" s="42"/>
       <c r="Q218" s="11"/>
       <c r="R218" s="4"/>
       <c r="S218" s="4"/>
@@ -9917,17 +9899,17 @@
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
-      <c r="F219" s="46"/>
-      <c r="G219" s="46"/>
-      <c r="H219" s="46"/>
-      <c r="I219" s="46"/>
-      <c r="J219" s="46"/>
-      <c r="K219" s="46"/>
-      <c r="L219" s="46"/>
-      <c r="M219" s="46"/>
-      <c r="N219" s="46"/>
-      <c r="O219" s="46"/>
-      <c r="P219" s="46"/>
+      <c r="F219" s="42"/>
+      <c r="G219" s="42"/>
+      <c r="H219" s="42"/>
+      <c r="I219" s="42"/>
+      <c r="J219" s="42"/>
+      <c r="K219" s="42"/>
+      <c r="L219" s="42"/>
+      <c r="M219" s="42"/>
+      <c r="N219" s="42"/>
+      <c r="O219" s="42"/>
+      <c r="P219" s="42"/>
       <c r="Q219" s="11"/>
       <c r="R219" s="4"/>
       <c r="S219" s="4"/>
@@ -9955,17 +9937,17 @@
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
-      <c r="F220" s="46"/>
-      <c r="G220" s="46"/>
-      <c r="H220" s="46"/>
-      <c r="I220" s="46"/>
-      <c r="J220" s="46"/>
-      <c r="K220" s="46"/>
-      <c r="L220" s="46"/>
-      <c r="M220" s="46"/>
-      <c r="N220" s="46"/>
-      <c r="O220" s="46"/>
-      <c r="P220" s="46"/>
+      <c r="F220" s="42"/>
+      <c r="G220" s="42"/>
+      <c r="H220" s="42"/>
+      <c r="I220" s="42"/>
+      <c r="J220" s="42"/>
+      <c r="K220" s="42"/>
+      <c r="L220" s="42"/>
+      <c r="M220" s="42"/>
+      <c r="N220" s="42"/>
+      <c r="O220" s="42"/>
+      <c r="P220" s="42"/>
       <c r="Q220" s="11"/>
       <c r="R220" s="4"/>
       <c r="S220" s="4"/>
@@ -9993,17 +9975,17 @@
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="F221" s="46"/>
-      <c r="G221" s="46"/>
-      <c r="H221" s="46"/>
-      <c r="I221" s="46"/>
-      <c r="J221" s="46"/>
-      <c r="K221" s="46"/>
-      <c r="L221" s="46"/>
-      <c r="M221" s="46"/>
-      <c r="N221" s="46"/>
-      <c r="O221" s="46"/>
-      <c r="P221" s="46"/>
+      <c r="F221" s="42"/>
+      <c r="G221" s="42"/>
+      <c r="H221" s="42"/>
+      <c r="I221" s="42"/>
+      <c r="J221" s="42"/>
+      <c r="K221" s="42"/>
+      <c r="L221" s="42"/>
+      <c r="M221" s="42"/>
+      <c r="N221" s="42"/>
+      <c r="O221" s="42"/>
+      <c r="P221" s="42"/>
       <c r="Q221" s="11"/>
       <c r="R221" s="4"/>
       <c r="S221" s="4"/>
@@ -10031,17 +10013,17 @@
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="46"/>
-      <c r="G222" s="46"/>
-      <c r="H222" s="46"/>
-      <c r="I222" s="46"/>
-      <c r="J222" s="46"/>
-      <c r="K222" s="46"/>
-      <c r="L222" s="46"/>
-      <c r="M222" s="46"/>
-      <c r="N222" s="46"/>
-      <c r="O222" s="46"/>
-      <c r="P222" s="46"/>
+      <c r="F222" s="42"/>
+      <c r="G222" s="42"/>
+      <c r="H222" s="42"/>
+      <c r="I222" s="42"/>
+      <c r="J222" s="42"/>
+      <c r="K222" s="42"/>
+      <c r="L222" s="42"/>
+      <c r="M222" s="42"/>
+      <c r="N222" s="42"/>
+      <c r="O222" s="42"/>
+      <c r="P222" s="42"/>
       <c r="Q222" s="11"/>
       <c r="R222" s="4"/>
       <c r="S222" s="4"/>
@@ -10069,17 +10051,17 @@
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="46"/>
-      <c r="G223" s="46"/>
-      <c r="H223" s="46"/>
-      <c r="I223" s="46"/>
-      <c r="J223" s="46"/>
-      <c r="K223" s="46"/>
-      <c r="L223" s="46"/>
-      <c r="M223" s="46"/>
-      <c r="N223" s="46"/>
-      <c r="O223" s="46"/>
-      <c r="P223" s="46"/>
+      <c r="F223" s="42"/>
+      <c r="G223" s="42"/>
+      <c r="H223" s="42"/>
+      <c r="I223" s="42"/>
+      <c r="J223" s="42"/>
+      <c r="K223" s="42"/>
+      <c r="L223" s="42"/>
+      <c r="M223" s="42"/>
+      <c r="N223" s="42"/>
+      <c r="O223" s="42"/>
+      <c r="P223" s="42"/>
       <c r="Q223" s="11"/>
       <c r="R223" s="4"/>
       <c r="S223" s="4"/>
@@ -10107,17 +10089,17 @@
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="46"/>
-      <c r="G224" s="46"/>
-      <c r="H224" s="46"/>
-      <c r="I224" s="46"/>
-      <c r="J224" s="46"/>
-      <c r="K224" s="46"/>
-      <c r="L224" s="46"/>
-      <c r="M224" s="46"/>
-      <c r="N224" s="46"/>
-      <c r="O224" s="46"/>
-      <c r="P224" s="46"/>
+      <c r="F224" s="42"/>
+      <c r="G224" s="42"/>
+      <c r="H224" s="42"/>
+      <c r="I224" s="42"/>
+      <c r="J224" s="42"/>
+      <c r="K224" s="42"/>
+      <c r="L224" s="42"/>
+      <c r="M224" s="42"/>
+      <c r="N224" s="42"/>
+      <c r="O224" s="42"/>
+      <c r="P224" s="42"/>
       <c r="Q224" s="11"/>
       <c r="R224" s="4"/>
       <c r="S224" s="4"/>
@@ -10145,17 +10127,17 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="46"/>
-      <c r="G225" s="46"/>
-      <c r="H225" s="46"/>
-      <c r="I225" s="46"/>
-      <c r="J225" s="46"/>
-      <c r="K225" s="46"/>
-      <c r="L225" s="46"/>
-      <c r="M225" s="46"/>
-      <c r="N225" s="46"/>
-      <c r="O225" s="46"/>
-      <c r="P225" s="46"/>
+      <c r="F225" s="42"/>
+      <c r="G225" s="42"/>
+      <c r="H225" s="42"/>
+      <c r="I225" s="42"/>
+      <c r="J225" s="42"/>
+      <c r="K225" s="42"/>
+      <c r="L225" s="42"/>
+      <c r="M225" s="42"/>
+      <c r="N225" s="42"/>
+      <c r="O225" s="42"/>
+      <c r="P225" s="42"/>
       <c r="Q225" s="11"/>
       <c r="R225" s="4"/>
       <c r="S225" s="4"/>
@@ -10183,17 +10165,17 @@
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
-      <c r="F226" s="46"/>
-      <c r="G226" s="46"/>
-      <c r="H226" s="46"/>
-      <c r="I226" s="46"/>
-      <c r="J226" s="46"/>
-      <c r="K226" s="46"/>
-      <c r="L226" s="46"/>
-      <c r="M226" s="46"/>
-      <c r="N226" s="46"/>
-      <c r="O226" s="46"/>
-      <c r="P226" s="46"/>
+      <c r="F226" s="42"/>
+      <c r="G226" s="42"/>
+      <c r="H226" s="42"/>
+      <c r="I226" s="42"/>
+      <c r="J226" s="42"/>
+      <c r="K226" s="42"/>
+      <c r="L226" s="42"/>
+      <c r="M226" s="42"/>
+      <c r="N226" s="42"/>
+      <c r="O226" s="42"/>
+      <c r="P226" s="42"/>
       <c r="Q226" s="11"/>
       <c r="R226" s="4"/>
       <c r="S226" s="4"/>
@@ -10221,17 +10203,17 @@
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
-      <c r="F227" s="46"/>
-      <c r="G227" s="46"/>
-      <c r="H227" s="46"/>
-      <c r="I227" s="46"/>
-      <c r="J227" s="46"/>
-      <c r="K227" s="46"/>
-      <c r="L227" s="46"/>
-      <c r="M227" s="46"/>
-      <c r="N227" s="46"/>
-      <c r="O227" s="46"/>
-      <c r="P227" s="46"/>
+      <c r="F227" s="42"/>
+      <c r="G227" s="42"/>
+      <c r="H227" s="42"/>
+      <c r="I227" s="42"/>
+      <c r="J227" s="42"/>
+      <c r="K227" s="42"/>
+      <c r="L227" s="42"/>
+      <c r="M227" s="42"/>
+      <c r="N227" s="42"/>
+      <c r="O227" s="42"/>
+      <c r="P227" s="42"/>
       <c r="Q227" s="11"/>
       <c r="R227" s="4"/>
       <c r="S227" s="4"/>
@@ -10259,17 +10241,17 @@
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
-      <c r="F228" s="46"/>
-      <c r="G228" s="46"/>
-      <c r="H228" s="46"/>
-      <c r="I228" s="46"/>
-      <c r="J228" s="46"/>
-      <c r="K228" s="46"/>
-      <c r="L228" s="46"/>
-      <c r="M228" s="46"/>
-      <c r="N228" s="46"/>
-      <c r="O228" s="46"/>
-      <c r="P228" s="46"/>
+      <c r="F228" s="42"/>
+      <c r="G228" s="42"/>
+      <c r="H228" s="42"/>
+      <c r="I228" s="42"/>
+      <c r="J228" s="42"/>
+      <c r="K228" s="42"/>
+      <c r="L228" s="42"/>
+      <c r="M228" s="42"/>
+      <c r="N228" s="42"/>
+      <c r="O228" s="42"/>
+      <c r="P228" s="42"/>
       <c r="Q228" s="11"/>
       <c r="R228" s="4"/>
       <c r="S228" s="4"/>
@@ -10291,42 +10273,42 @@
       <c r="AI228" s="4"/>
       <c r="AJ228" s="11"/>
     </row>
-    <row r="229" spans="1:36" ht="18.75" customHeight="1">
+    <row r="229" spans="1:36" ht="15.75" customHeight="1">
       <c r="A229" s="11"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="46"/>
-      <c r="G229" s="46"/>
-      <c r="H229" s="46"/>
-      <c r="I229" s="46"/>
-      <c r="J229" s="46"/>
-      <c r="K229" s="46"/>
-      <c r="L229" s="46"/>
-      <c r="M229" s="46"/>
-      <c r="N229" s="46"/>
-      <c r="O229" s="46"/>
-      <c r="P229" s="46"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
       <c r="Q229" s="11"/>
-      <c r="R229" s="4"/>
-      <c r="S229" s="4"/>
-      <c r="T229" s="4"/>
-      <c r="U229" s="4"/>
-      <c r="V229" s="4"/>
-      <c r="W229" s="4"/>
-      <c r="X229" s="4"/>
-      <c r="Y229" s="4"/>
-      <c r="Z229" s="4"/>
-      <c r="AA229" s="4"/>
-      <c r="AB229" s="4"/>
-      <c r="AC229" s="4"/>
-      <c r="AD229" s="4"/>
-      <c r="AE229" s="4"/>
-      <c r="AF229" s="4"/>
-      <c r="AG229" s="4"/>
-      <c r="AH229" s="4"/>
-      <c r="AI229" s="4"/>
+      <c r="R229" s="11"/>
+      <c r="S229" s="11"/>
+      <c r="T229" s="11"/>
+      <c r="U229" s="11"/>
+      <c r="V229" s="11"/>
+      <c r="W229" s="11"/>
+      <c r="X229" s="11"/>
+      <c r="Y229" s="11"/>
+      <c r="Z229" s="11"/>
+      <c r="AA229" s="11"/>
+      <c r="AB229" s="11"/>
+      <c r="AC229" s="11"/>
+      <c r="AD229" s="11"/>
+      <c r="AE229" s="11"/>
+      <c r="AF229" s="11"/>
+      <c r="AG229" s="11"/>
+      <c r="AH229" s="11"/>
+      <c r="AI229" s="11"/>
       <c r="AJ229" s="11"/>
     </row>
     <row r="230" spans="1:36" ht="15.75" customHeight="1">
@@ -39361,47 +39343,9 @@
       <c r="AI993" s="11"/>
       <c r="AJ993" s="11"/>
     </row>
-    <row r="994" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A994" s="11"/>
-      <c r="B994" s="11"/>
-      <c r="C994" s="11"/>
-      <c r="D994" s="11"/>
-      <c r="E994" s="11"/>
-      <c r="F994" s="11"/>
-      <c r="G994" s="11"/>
-      <c r="H994" s="11"/>
-      <c r="I994" s="11"/>
-      <c r="J994" s="11"/>
-      <c r="K994" s="11"/>
-      <c r="L994" s="11"/>
-      <c r="M994" s="11"/>
-      <c r="N994" s="11"/>
-      <c r="O994" s="11"/>
-      <c r="P994" s="11"/>
-      <c r="Q994" s="11"/>
-      <c r="R994" s="11"/>
-      <c r="S994" s="11"/>
-      <c r="T994" s="11"/>
-      <c r="U994" s="11"/>
-      <c r="V994" s="11"/>
-      <c r="W994" s="11"/>
-      <c r="X994" s="11"/>
-      <c r="Y994" s="11"/>
-      <c r="Z994" s="11"/>
-      <c r="AA994" s="11"/>
-      <c r="AB994" s="11"/>
-      <c r="AC994" s="11"/>
-      <c r="AD994" s="11"/>
-      <c r="AE994" s="11"/>
-      <c r="AF994" s="11"/>
-      <c r="AG994" s="11"/>
-      <c r="AH994" s="11"/>
-      <c r="AI994" s="11"/>
-      <c r="AJ994" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B58:P58"/>
+    <mergeCell ref="B57:P57"/>
     <mergeCell ref="B2:E5"/>
     <mergeCell ref="B6:O10"/>
     <mergeCell ref="C12:O12"/>

--- a/src/main/resources/static/excel/download/코웨이 청구 상세내역.xlsx
+++ b/src/main/resources/static/excel/download/코웨이 청구 상세내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\cursor_project\sap-rfc-demo\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB401B-90A4-46AE-BDA9-8461B691A00D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB25A6-E41E-4CAB-A121-62CA79E49E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="107">
   <si>
     <t>사업자명</t>
   </si>
@@ -234,19 +234,19 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>(주)종근당</t>
+    <t>롯데쇼핑(주)롯데마트사업본부</t>
   </si>
   <si>
-    <t>1108608069</t>
+    <t>2158513569</t>
   </si>
   <si>
-    <t>김영주</t>
+    <t>강희태외1</t>
   </si>
   <si>
-    <t>제조업</t>
+    <t>도.소매서비스</t>
   </si>
   <si>
-    <t>완제 의약품 제조업</t>
+    <t>대형점용역</t>
   </si>
   <si>
     <t>코웨이㈜
@@ -256,22 +256,22 @@
     <t>2025.01.31</t>
   </si>
   <si>
-    <t>20ABN2108209</t>
+    <t>20ABN2008662</t>
   </si>
   <si>
-    <t>000000000000111821</t>
+    <t>000000000000113067</t>
   </si>
   <si>
-    <t>정수기</t>
+    <t>비데</t>
   </si>
   <si>
-    <t>2021.11.24</t>
+    <t>2020.12.08</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>0000.00.00</t>
+    <t>2025.12.08</t>
   </si>
   <si>
     <t>2024.12</t>
@@ -280,61 +280,118 @@
     <t>2025.01</t>
   </si>
   <si>
-    <t>20ABN2108210</t>
+    <t>20ABN2008663</t>
   </si>
   <si>
-    <t>20ABN2108211</t>
+    <t>20ABN2008664</t>
   </si>
   <si>
-    <t>20ABN2272901</t>
+    <t>20ABN2008665</t>
   </si>
   <si>
-    <t>2022.08.30</t>
+    <t>20ABN2008666</t>
   </si>
   <si>
-    <t>20ABN2272902</t>
+    <t>20ABN2008667</t>
   </si>
   <si>
-    <t>20ABN2272903</t>
+    <t>20ABN2008668</t>
   </si>
   <si>
-    <t>20ABN2277348</t>
+    <t>20ABN2008669</t>
   </si>
   <si>
-    <t>2022.12.08</t>
+    <t>20ABN2008670</t>
   </si>
   <si>
-    <t>20ABN2277349</t>
+    <t>20ABN2008671</t>
   </si>
   <si>
-    <t>20ABN2277350</t>
+    <t>20ABN2008672</t>
   </si>
   <si>
-    <t>20ABN2325560</t>
+    <t>20ABN2008673</t>
   </si>
   <si>
-    <t>2023.09.19</t>
+    <t>20ABN2008674</t>
   </si>
   <si>
-    <t>20ABN2325561</t>
+    <t>20ABN2008675</t>
   </si>
   <si>
-    <t>20ABN2325562</t>
+    <t>20ABN2008676</t>
   </si>
   <si>
-    <t>20ABN2417372</t>
+    <t>20ABN2008677</t>
   </si>
   <si>
-    <t>000000000000112920</t>
+    <t>20ABN2008678</t>
   </si>
   <si>
-    <t>2024.07.15</t>
+    <t>20ABN2008679</t>
   </si>
   <si>
-    <t>20ABN2417373</t>
+    <t>20ABN2008680</t>
   </si>
   <si>
-    <t>2024.08.02</t>
+    <t>20ABN2008681</t>
+  </si>
+  <si>
+    <t>20ABN2008682</t>
+  </si>
+  <si>
+    <t>20ABN2008683</t>
+  </si>
+  <si>
+    <t>20ABN2008684</t>
+  </si>
+  <si>
+    <t>20ABN2008685</t>
+  </si>
+  <si>
+    <t>20ABN2008686</t>
+  </si>
+  <si>
+    <t>20ABN2008687</t>
+  </si>
+  <si>
+    <t>20ABN2008688</t>
+  </si>
+  <si>
+    <t>20ABN2008689</t>
+  </si>
+  <si>
+    <t>20ABN2008690</t>
+  </si>
+  <si>
+    <t>20ABN2008691</t>
+  </si>
+  <si>
+    <t>20ABN2008780</t>
+  </si>
+  <si>
+    <t>2020.12.14</t>
+  </si>
+  <si>
+    <t>2025.12.14</t>
+  </si>
+  <si>
+    <t>20ABN2300550</t>
+  </si>
+  <si>
+    <t>000000000000112742</t>
+  </si>
+  <si>
+    <t>청정기</t>
+  </si>
+  <si>
+    <t>2023.01.16</t>
+  </si>
+  <si>
+    <t>2028.01.16</t>
+  </si>
+  <si>
+    <t>20ABN2300551</t>
   </si>
   <si>
     <t/>
@@ -1051,7 +1108,7 @@
   <dimension ref="A1:AJ993"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2212,25 +2269,25 @@
         <v>67</v>
       </c>
       <c r="J28" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K28" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L28" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M28" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N28" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O28" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P28" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="4"/>
@@ -2280,25 +2337,25 @@
         <v>67</v>
       </c>
       <c r="J29" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K29" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L29" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M29" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N29" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O29" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P29" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="4"/>
@@ -2348,25 +2405,25 @@
         <v>67</v>
       </c>
       <c r="J30" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K30" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L30" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M30" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N30" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O30" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P30" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="4"/>
@@ -2401,7 +2458,7 @@
         <v>62</v>
       </c>
       <c r="E31" t="s" s="58">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s" s="58">
         <v>64</v>
@@ -2416,25 +2473,25 @@
         <v>67</v>
       </c>
       <c r="J31" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K31" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L31" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M31" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N31" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O31" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P31" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="4"/>
@@ -2460,7 +2517,7 @@
     <row r="32" spans="1:36" ht="33.75" customHeight="true">
       <c r="A32" s="8"/>
       <c r="B32" t="s" s="58">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s" s="58">
         <v>61</v>
@@ -2469,7 +2526,7 @@
         <v>62</v>
       </c>
       <c r="E32" t="s" s="58">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s" s="58">
         <v>64</v>
@@ -2484,25 +2541,25 @@
         <v>67</v>
       </c>
       <c r="J32" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K32" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L32" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M32" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N32" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O32" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P32" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="4"/>
@@ -2528,7 +2585,7 @@
     <row r="33" spans="1:36" ht="33.75" customHeight="true">
       <c r="A33" s="8"/>
       <c r="B33" t="s" s="58">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s" s="58">
         <v>61</v>
@@ -2537,7 +2594,7 @@
         <v>62</v>
       </c>
       <c r="E33" t="s" s="58">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s" s="58">
         <v>64</v>
@@ -2552,25 +2609,25 @@
         <v>67</v>
       </c>
       <c r="J33" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K33" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L33" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M33" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N33" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O33" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P33" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="4"/>
@@ -2596,7 +2653,7 @@
     <row r="34" spans="1:36" ht="33.75" customHeight="true">
       <c r="A34" s="8"/>
       <c r="B34" t="s" s="58">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s" s="58">
         <v>61</v>
@@ -2605,7 +2662,7 @@
         <v>62</v>
       </c>
       <c r="E34" t="s" s="58">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s" s="58">
         <v>64</v>
@@ -2620,25 +2677,25 @@
         <v>67</v>
       </c>
       <c r="J34" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K34" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L34" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M34" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N34" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O34" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P34" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="4"/>
@@ -2664,7 +2721,7 @@
     <row r="35" spans="1:36" ht="33.75" customHeight="true">
       <c r="A35" s="8"/>
       <c r="B35" t="s" s="58">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s" s="58">
         <v>61</v>
@@ -2673,7 +2730,7 @@
         <v>62</v>
       </c>
       <c r="E35" t="s" s="58">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s" s="58">
         <v>64</v>
@@ -2688,25 +2745,25 @@
         <v>67</v>
       </c>
       <c r="J35" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K35" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L35" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M35" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N35" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O35" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P35" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="4"/>
@@ -2732,7 +2789,7 @@
     <row r="36" spans="1:36" ht="33.75" customHeight="true">
       <c r="A36" s="8"/>
       <c r="B36" t="s" s="58">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s" s="58">
         <v>61</v>
@@ -2741,7 +2798,7 @@
         <v>62</v>
       </c>
       <c r="E36" t="s" s="58">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s" s="58">
         <v>64</v>
@@ -2756,25 +2813,25 @@
         <v>67</v>
       </c>
       <c r="J36" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K36" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L36" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M36" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N36" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O36" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P36" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="4"/>
@@ -2800,7 +2857,7 @@
     <row r="37" spans="1:36" ht="33.75" customHeight="true">
       <c r="A37" s="8"/>
       <c r="B37" t="s" s="58">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s" s="58">
         <v>61</v>
@@ -2809,7 +2866,7 @@
         <v>62</v>
       </c>
       <c r="E37" t="s" s="58">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s" s="58">
         <v>64</v>
@@ -2824,25 +2881,25 @@
         <v>67</v>
       </c>
       <c r="J37" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K37" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L37" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M37" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N37" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O37" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P37" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="4"/>
@@ -2868,7 +2925,7 @@
     <row r="38" spans="1:36" ht="33.75" customHeight="true">
       <c r="A38" s="8"/>
       <c r="B38" t="s" s="58">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s" s="58">
         <v>61</v>
@@ -2877,7 +2934,7 @@
         <v>62</v>
       </c>
       <c r="E38" t="s" s="58">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s" s="58">
         <v>64</v>
@@ -2892,25 +2949,25 @@
         <v>67</v>
       </c>
       <c r="J38" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K38" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L38" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M38" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N38" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O38" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P38" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="4"/>
@@ -2936,7 +2993,7 @@
     <row r="39" spans="1:36" ht="33.75" customHeight="true">
       <c r="A39" s="8"/>
       <c r="B39" t="s" s="58">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="58">
         <v>61</v>
@@ -2945,7 +3002,7 @@
         <v>62</v>
       </c>
       <c r="E39" t="s" s="58">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s" s="58">
         <v>64</v>
@@ -2960,25 +3017,25 @@
         <v>67</v>
       </c>
       <c r="J39" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K39" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L39" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M39" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N39" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O39" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P39" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="4"/>
@@ -3004,16 +3061,16 @@
     <row r="40" spans="1:36" ht="33.75" customHeight="true">
       <c r="A40" s="8"/>
       <c r="B40" t="s" s="58">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s" s="58">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s" s="58">
         <v>62</v>
       </c>
       <c r="E40" t="s" s="58">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s" s="58">
         <v>64</v>
@@ -3028,25 +3085,25 @@
         <v>67</v>
       </c>
       <c r="J40" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K40" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L40" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M40" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N40" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O40" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P40" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="4"/>
@@ -3072,16 +3129,16 @@
     <row r="41" spans="1:36" ht="33.75" customHeight="true">
       <c r="A41" s="8"/>
       <c r="B41" t="s" s="58">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s" s="58">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s" s="58">
         <v>62</v>
       </c>
       <c r="E41" t="s" s="58">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s" s="58">
         <v>64</v>
@@ -3096,25 +3153,25 @@
         <v>67</v>
       </c>
       <c r="J41" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K41" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="L41" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="M41" t="n" s="57">
-        <v>21800.0</v>
+        <v>14000.0</v>
       </c>
       <c r="N41" t="n" s="57">
-        <v>2180.0</v>
+        <v>1400.0</v>
       </c>
       <c r="O41" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="P41" t="n" s="57">
-        <v>23980.0</v>
+        <v>15400.0</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="4"/>
@@ -3137,52 +3194,52 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="11"/>
     </row>
-    <row r="42" spans="1:36" ht="37.5" customHeight="true">
+    <row r="42" spans="1:36" ht="33.75" customHeight="true">
       <c r="A42" s="8"/>
-      <c r="B42" t="s" s="59">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s" s="59">
-        <v>87</v>
-      </c>
-      <c r="D42" t="s" s="59">
-        <v>87</v>
-      </c>
-      <c r="E42" t="s" s="59">
-        <v>87</v>
-      </c>
-      <c r="F42" t="s" s="59">
-        <v>87</v>
-      </c>
-      <c r="G42" t="s" s="59">
-        <v>87</v>
-      </c>
-      <c r="H42" t="s" s="59">
-        <v>87</v>
-      </c>
-      <c r="I42" t="s" s="59">
-        <v>87</v>
-      </c>
-      <c r="J42" t="n" s="60">
-        <v>305200.0</v>
-      </c>
-      <c r="K42" t="n" s="60">
-        <v>30520.0</v>
-      </c>
-      <c r="L42" t="n" s="60">
-        <v>335720.0</v>
-      </c>
-      <c r="M42" t="n" s="60">
-        <v>305200.0</v>
-      </c>
-      <c r="N42" t="n" s="60">
-        <v>30520.0</v>
-      </c>
-      <c r="O42" t="n" s="60">
-        <v>335720.0</v>
-      </c>
-      <c r="P42" t="n" s="60">
-        <v>335720.0</v>
+      <c r="B42" t="s" s="58">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E42" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G42" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I42" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J42" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K42" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L42" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M42" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N42" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O42" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P42" t="n" s="57">
+        <v>15400.0</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="4"/>
@@ -3205,23 +3262,53 @@
       <c r="AI42" s="4"/>
       <c r="AJ42" s="11"/>
     </row>
-    <row r="43" spans="1:36" ht="18.75" customHeight="1">
+    <row r="43" spans="1:36" ht="33.75" customHeight="true">
       <c r="A43" s="8"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="39"/>
+      <c r="B43" t="s" s="58">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G43" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H43" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I43" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J43" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K43" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L43" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M43" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N43" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O43" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P43" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="4"/>
       <c r="S43" s="11"/>
@@ -3243,23 +3330,53 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="11"/>
     </row>
-    <row r="44" spans="1:36" ht="18.75" customHeight="1">
+    <row r="44" spans="1:36" ht="33.75" customHeight="true">
       <c r="A44" s="8"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="39"/>
+      <c r="B44" t="s" s="58">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E44" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G44" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H44" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I44" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J44" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K44" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L44" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M44" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N44" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O44" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P44" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="4"/>
       <c r="S44" s="11"/>
@@ -3281,23 +3398,53 @@
       <c r="AI44" s="4"/>
       <c r="AJ44" s="11"/>
     </row>
-    <row r="45" spans="1:36" ht="18.75" customHeight="1">
+    <row r="45" spans="1:36" ht="33.75" customHeight="true">
       <c r="A45" s="8"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
+      <c r="B45" t="s" s="58">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E45" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G45" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H45" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I45" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J45" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K45" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L45" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M45" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N45" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O45" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P45" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="4"/>
       <c r="S45" s="11"/>
@@ -3319,23 +3466,53 @@
       <c r="AI45" s="4"/>
       <c r="AJ45" s="11"/>
     </row>
-    <row r="46" spans="1:36" ht="18.75" customHeight="1">
+    <row r="46" spans="1:36" ht="33.75" customHeight="true">
       <c r="A46" s="8"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
+      <c r="B46" t="s" s="58">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E46" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H46" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I46" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J46" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K46" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L46" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M46" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N46" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O46" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P46" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="4"/>
       <c r="S46" s="11"/>
@@ -3357,23 +3534,53 @@
       <c r="AI46" s="4"/>
       <c r="AJ46" s="11"/>
     </row>
-    <row r="47" spans="1:36" ht="18.75" customHeight="1">
+    <row r="47" spans="1:36" ht="33.75" customHeight="true">
       <c r="A47" s="8"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
+      <c r="B47" t="s" s="58">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G47" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H47" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I47" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J47" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K47" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L47" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M47" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N47" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O47" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P47" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="4"/>
       <c r="S47" s="11"/>
@@ -3395,23 +3602,53 @@
       <c r="AI47" s="4"/>
       <c r="AJ47" s="11"/>
     </row>
-    <row r="48" spans="1:36" ht="18.75" customHeight="1">
+    <row r="48" spans="1:36" ht="33.75" customHeight="true">
       <c r="A48" s="8"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
+      <c r="B48" t="s" s="58">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E48" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G48" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H48" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I48" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J48" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K48" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L48" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M48" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N48" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O48" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P48" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="4"/>
       <c r="S48" s="11"/>
@@ -3433,23 +3670,53 @@
       <c r="AI48" s="4"/>
       <c r="AJ48" s="11"/>
     </row>
-    <row r="49" spans="1:36" ht="18.75" customHeight="1">
+    <row r="49" spans="1:36" ht="33.75" customHeight="true">
       <c r="A49" s="8"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
+      <c r="B49" t="s" s="58">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G49" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H49" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I49" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J49" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K49" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L49" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M49" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N49" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O49" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P49" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="4"/>
       <c r="S49" s="11"/>
@@ -3471,23 +3738,53 @@
       <c r="AI49" s="4"/>
       <c r="AJ49" s="11"/>
     </row>
-    <row r="50" spans="1:36" ht="18.75" customHeight="1">
+    <row r="50" spans="1:36" ht="33.75" customHeight="true">
       <c r="A50" s="8"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
+      <c r="B50" t="s" s="58">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G50" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I50" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J50" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K50" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L50" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M50" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N50" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O50" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P50" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="4"/>
       <c r="S50" s="11"/>
@@ -3509,23 +3806,53 @@
       <c r="AI50" s="4"/>
       <c r="AJ50" s="11"/>
     </row>
-    <row r="51" spans="1:36" ht="18.75" customHeight="1">
+    <row r="51" spans="1:36" ht="33.75" customHeight="true">
       <c r="A51" s="8"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
+      <c r="B51" t="s" s="58">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G51" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H51" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I51" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J51" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K51" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L51" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M51" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N51" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O51" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P51" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="4"/>
       <c r="S51" s="11"/>
@@ -3547,23 +3874,53 @@
       <c r="AI51" s="4"/>
       <c r="AJ51" s="11"/>
     </row>
-    <row r="52" spans="1:36" ht="18.75" customHeight="1">
+    <row r="52" spans="1:36" ht="33.75" customHeight="true">
       <c r="A52" s="8"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
+      <c r="B52" t="s" s="58">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E52" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F52" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G52" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H52" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I52" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J52" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K52" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L52" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M52" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N52" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O52" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P52" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="4"/>
       <c r="S52" s="11"/>
@@ -3585,23 +3942,53 @@
       <c r="AI52" s="4"/>
       <c r="AJ52" s="11"/>
     </row>
-    <row r="53" spans="1:36" ht="18.75" customHeight="1">
+    <row r="53" spans="1:36" ht="33.75" customHeight="true">
       <c r="A53" s="8"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+      <c r="B53" t="s" s="58">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E53" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F53" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G53" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H53" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I53" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J53" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K53" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L53" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M53" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N53" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O53" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P53" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="4"/>
       <c r="S53" s="11"/>
@@ -3623,23 +4010,53 @@
       <c r="AI53" s="4"/>
       <c r="AJ53" s="11"/>
     </row>
-    <row r="54" spans="1:36" ht="18.75" customHeight="1">
+    <row r="54" spans="1:36" ht="33.75" customHeight="true">
       <c r="A54" s="8"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
+      <c r="B54" t="s" s="58">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F54" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G54" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H54" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I54" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J54" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K54" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L54" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M54" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N54" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O54" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P54" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="4"/>
       <c r="S54" s="11"/>
@@ -3661,23 +4078,53 @@
       <c r="AI54" s="4"/>
       <c r="AJ54" s="11"/>
     </row>
-    <row r="55" spans="1:36" ht="18.75" customHeight="1">
+    <row r="55" spans="1:36" ht="33.75" customHeight="true">
       <c r="A55" s="8"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
+      <c r="B55" t="s" s="58">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E55" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F55" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H55" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I55" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J55" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K55" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L55" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M55" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N55" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O55" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P55" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="4"/>
       <c r="S55" s="11"/>
@@ -3699,23 +4146,53 @@
       <c r="AI55" s="4"/>
       <c r="AJ55" s="11"/>
     </row>
-    <row r="56" spans="1:36" ht="18.75" customHeight="1">
+    <row r="56" spans="1:36" ht="33.75" customHeight="true">
       <c r="A56" s="8"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
+      <c r="B56" t="s" s="58">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F56" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G56" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H56" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I56" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J56" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K56" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L56" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M56" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N56" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O56" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P56" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="4"/>
       <c r="S56" s="11"/>
@@ -3737,23 +4214,53 @@
       <c r="AI56" s="4"/>
       <c r="AJ56" s="11"/>
     </row>
-    <row r="57" spans="1:36" ht="18.75" customHeight="1">
+    <row r="57" spans="1:36" ht="33.75" customHeight="true">
       <c r="A57" s="8"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
+      <c r="B57" t="s" s="58">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E57" t="s" s="58">
+        <v>63</v>
+      </c>
+      <c r="F57" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G57" t="s" s="58">
+        <v>65</v>
+      </c>
+      <c r="H57" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I57" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J57" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K57" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L57" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M57" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N57" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O57" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P57" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="4"/>
       <c r="S57" s="11"/>
@@ -3775,23 +4282,53 @@
       <c r="AI57" s="4"/>
       <c r="AJ57" s="11"/>
     </row>
-    <row r="58" spans="1:36" ht="18.75" customHeight="1">
+    <row r="58" spans="1:36" ht="33.75" customHeight="true">
       <c r="A58" s="11"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
+      <c r="B58" t="s" s="58">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s" s="58">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s" s="58">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s" s="58">
+        <v>98</v>
+      </c>
+      <c r="F58" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s" s="58">
+        <v>99</v>
+      </c>
+      <c r="H58" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I58" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J58" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="K58" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="L58" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="M58" t="n" s="57">
+        <v>14000.0</v>
+      </c>
+      <c r="N58" t="n" s="57">
+        <v>1400.0</v>
+      </c>
+      <c r="O58" t="n" s="57">
+        <v>15400.0</v>
+      </c>
+      <c r="P58" t="n" s="57">
+        <v>15400.0</v>
+      </c>
       <c r="Q58" s="11"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
@@ -3813,23 +4350,53 @@
       <c r="AI58" s="4"/>
       <c r="AJ58" s="11"/>
     </row>
-    <row r="59" spans="1:36" ht="18.75" customHeight="1">
+    <row r="59" spans="1:36" ht="33.75" customHeight="true">
       <c r="A59" s="11"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
+      <c r="B59" t="s" s="58">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s" s="58">
+        <v>101</v>
+      </c>
+      <c r="D59" t="s" s="58">
+        <v>102</v>
+      </c>
+      <c r="E59" t="s" s="58">
+        <v>103</v>
+      </c>
+      <c r="F59" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G59" t="s" s="58">
+        <v>104</v>
+      </c>
+      <c r="H59" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I59" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J59" t="n" s="57">
+        <v>31500.0</v>
+      </c>
+      <c r="K59" t="n" s="57">
+        <v>3150.0</v>
+      </c>
+      <c r="L59" t="n" s="57">
+        <v>34650.0</v>
+      </c>
+      <c r="M59" t="n" s="57">
+        <v>31500.0</v>
+      </c>
+      <c r="N59" t="n" s="57">
+        <v>3150.0</v>
+      </c>
+      <c r="O59" t="n" s="57">
+        <v>34650.0</v>
+      </c>
+      <c r="P59" t="n" s="57">
+        <v>34650.0</v>
+      </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
@@ -3851,23 +4418,53 @@
       <c r="AI59" s="4"/>
       <c r="AJ59" s="11"/>
     </row>
-    <row r="60" spans="1:36" ht="18.75" customHeight="1">
+    <row r="60" spans="1:36" ht="33.75" customHeight="true">
       <c r="A60" s="11"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
+      <c r="B60" t="s" s="58">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s" s="58">
+        <v>101</v>
+      </c>
+      <c r="D60" t="s" s="58">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s" s="58">
+        <v>103</v>
+      </c>
+      <c r="F60" t="s" s="58">
+        <v>64</v>
+      </c>
+      <c r="G60" t="s" s="58">
+        <v>104</v>
+      </c>
+      <c r="H60" t="s" s="58">
+        <v>66</v>
+      </c>
+      <c r="I60" t="s" s="58">
+        <v>67</v>
+      </c>
+      <c r="J60" t="n" s="57">
+        <v>31500.0</v>
+      </c>
+      <c r="K60" t="n" s="57">
+        <v>3150.0</v>
+      </c>
+      <c r="L60" t="n" s="57">
+        <v>34650.0</v>
+      </c>
+      <c r="M60" t="n" s="57">
+        <v>31500.0</v>
+      </c>
+      <c r="N60" t="n" s="57">
+        <v>3150.0</v>
+      </c>
+      <c r="O60" t="n" s="57">
+        <v>34650.0</v>
+      </c>
+      <c r="P60" t="n" s="57">
+        <v>34650.0</v>
+      </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
@@ -3889,23 +4486,53 @@
       <c r="AI60" s="4"/>
       <c r="AJ60" s="11"/>
     </row>
-    <row r="61" spans="1:36" ht="18.75" customHeight="1">
+    <row r="61" spans="1:36" ht="37.5" customHeight="true">
       <c r="A61" s="11"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
+      <c r="B61" t="s" s="59">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s" s="59">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s" s="59">
+        <v>106</v>
+      </c>
+      <c r="E61" t="s" s="59">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s" s="59">
+        <v>106</v>
+      </c>
+      <c r="G61" t="s" s="59">
+        <v>106</v>
+      </c>
+      <c r="H61" t="s" s="59">
+        <v>106</v>
+      </c>
+      <c r="I61" t="s" s="59">
+        <v>106</v>
+      </c>
+      <c r="J61" t="n" s="60">
+        <v>497000.0</v>
+      </c>
+      <c r="K61" t="n" s="60">
+        <v>49700.0</v>
+      </c>
+      <c r="L61" t="n" s="60">
+        <v>546700.0</v>
+      </c>
+      <c r="M61" t="n" s="60">
+        <v>497000.0</v>
+      </c>
+      <c r="N61" t="n" s="60">
+        <v>49700.0</v>
+      </c>
+      <c r="O61" t="n" s="60">
+        <v>546700.0</v>
+      </c>
+      <c r="P61" t="n" s="60">
+        <v>546700.0</v>
+      </c>
       <c r="Q61" s="11"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>

--- a/src/main/resources/static/excel/download/코웨이 청구 상세내역.xlsx
+++ b/src/main/resources/static/excel/download/코웨이 청구 상세내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibank\Desktop\cursor_project\sap-rfc-demo\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EB25A6-E41E-4CAB-A121-62CA79E49E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A504A04D-9E82-4BC1-AF42-ABA2286C3CF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>{GOODS_CD}</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>{INST_DT}</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>{GOODS_TX}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>롯데쇼핑(주)롯데마트사업본부</t>
   </si>
   <si>
@@ -259,10 +259,10 @@
     <t>20ABN2008662</t>
   </si>
   <si>
-    <t>000000000000113067</t>
+    <t>비데</t>
   </si>
   <si>
-    <t>비데</t>
+    <t>BA36-A</t>
   </si>
   <si>
     <t>2020.12.08</t>
@@ -379,10 +379,10 @@
     <t>20ABN2300550</t>
   </si>
   <si>
-    <t>000000000000112742</t>
+    <t>청정기</t>
   </si>
   <si>
-    <t>청정기</t>
+    <t>AP-3018B</t>
   </si>
   <si>
     <t>2023.01.16</t>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ993"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>

--- a/src/main/resources/static/excel/download/코웨이 청구 상세내역.xlsx
+++ b/src/main/resources/static/excel/download/코웨이 청구 상세내역.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="176">
   <si>
     <t>사업자명</t>
   </si>
@@ -3623,11 +3623,21 @@
       <c r="O28" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
+      <c r="P28" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R28" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S28" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T28" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U28" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -3658,11 +3668,21 @@
       <c r="AD28" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
+      <c r="AE28" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF28" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG28" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH28" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI28" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ28" t="s" s="71">
         <v>99</v>
       </c>
@@ -3729,11 +3749,21 @@
       <c r="O29" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
+      <c r="P29" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q29" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R29" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S29" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T29" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U29" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -3764,11 +3794,21 @@
       <c r="AD29" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
+      <c r="AE29" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF29" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG29" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH29" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI29" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ29" t="s" s="71">
         <v>99</v>
       </c>
@@ -3835,11 +3875,21 @@
       <c r="O30" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
+      <c r="P30" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q30" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R30" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S30" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T30" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U30" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -3870,11 +3920,21 @@
       <c r="AD30" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
+      <c r="AE30" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF30" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG30" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH30" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI30" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ30" t="s" s="71">
         <v>99</v>
       </c>
@@ -3941,11 +4001,21 @@
       <c r="O31" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
+      <c r="P31" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q31" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R31" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S31" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T31" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U31" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -3976,11 +4046,21 @@
       <c r="AD31" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
+      <c r="AE31" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF31" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG31" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH31" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI31" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ31" t="s" s="71">
         <v>99</v>
       </c>
@@ -4047,11 +4127,21 @@
       <c r="O32" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
+      <c r="P32" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q32" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R32" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S32" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T32" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U32" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4082,11 +4172,21 @@
       <c r="AD32" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
+      <c r="AE32" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF32" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG32" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH32" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI32" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ32" t="s" s="71">
         <v>99</v>
       </c>
@@ -4153,11 +4253,21 @@
       <c r="O33" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
+      <c r="P33" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q33" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R33" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S33" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T33" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U33" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4188,11 +4298,21 @@
       <c r="AD33" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
+      <c r="AE33" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF33" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG33" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH33" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI33" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ33" t="s" s="71">
         <v>99</v>
       </c>
@@ -4259,11 +4379,21 @@
       <c r="O34" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
+      <c r="P34" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q34" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R34" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S34" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T34" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U34" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4294,11 +4424,21 @@
       <c r="AD34" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
+      <c r="AE34" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF34" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG34" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH34" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI34" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ34" t="s" s="71">
         <v>99</v>
       </c>
@@ -4365,11 +4505,21 @@
       <c r="O35" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
+      <c r="P35" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q35" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R35" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S35" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T35" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U35" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4400,11 +4550,21 @@
       <c r="AD35" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
+      <c r="AE35" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF35" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG35" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH35" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI35" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ35" t="s" s="71">
         <v>99</v>
       </c>
@@ -4471,11 +4631,21 @@
       <c r="O36" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
+      <c r="P36" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q36" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R36" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S36" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T36" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U36" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4506,11 +4676,21 @@
       <c r="AD36" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
+      <c r="AE36" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF36" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG36" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH36" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI36" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ36" t="s" s="71">
         <v>99</v>
       </c>
@@ -4577,11 +4757,21 @@
       <c r="O37" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
+      <c r="P37" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q37" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R37" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S37" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T37" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U37" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4612,11 +4802,21 @@
       <c r="AD37" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
+      <c r="AE37" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF37" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG37" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH37" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI37" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ37" t="s" s="71">
         <v>99</v>
       </c>
@@ -4683,11 +4883,21 @@
       <c r="O38" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
+      <c r="P38" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q38" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R38" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S38" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T38" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U38" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4718,11 +4928,21 @@
       <c r="AD38" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
+      <c r="AE38" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF38" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG38" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH38" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI38" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ38" t="s" s="71">
         <v>99</v>
       </c>
@@ -4789,11 +5009,21 @@
       <c r="O39" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
+      <c r="P39" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q39" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R39" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S39" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T39" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U39" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4824,11 +5054,21 @@
       <c r="AD39" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
+      <c r="AE39" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF39" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG39" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH39" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI39" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ39" t="s" s="71">
         <v>99</v>
       </c>
@@ -4895,11 +5135,21 @@
       <c r="O40" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
+      <c r="P40" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q40" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R40" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S40" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T40" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U40" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -4930,11 +5180,21 @@
       <c r="AD40" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
+      <c r="AE40" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF40" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG40" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH40" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI40" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ40" t="s" s="71">
         <v>99</v>
       </c>
@@ -5001,11 +5261,21 @@
       <c r="O41" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
+      <c r="P41" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q41" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R41" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S41" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T41" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U41" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5036,11 +5306,21 @@
       <c r="AD41" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
+      <c r="AE41" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF41" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG41" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH41" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI41" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ41" t="s" s="71">
         <v>99</v>
       </c>
@@ -5107,11 +5387,21 @@
       <c r="O42" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
+      <c r="P42" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q42" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R42" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S42" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T42" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U42" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5142,11 +5432,21 @@
       <c r="AD42" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
+      <c r="AE42" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF42" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG42" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH42" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI42" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ42" t="s" s="71">
         <v>99</v>
       </c>
@@ -5213,11 +5513,21 @@
       <c r="O43" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
+      <c r="P43" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q43" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R43" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S43" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T43" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U43" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5248,11 +5558,21 @@
       <c r="AD43" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
+      <c r="AE43" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF43" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG43" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH43" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI43" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ43" t="s" s="71">
         <v>99</v>
       </c>
@@ -5319,11 +5639,21 @@
       <c r="O44" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
+      <c r="P44" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q44" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R44" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S44" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T44" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U44" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5354,11 +5684,21 @@
       <c r="AD44" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
+      <c r="AE44" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF44" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG44" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH44" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI44" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ44" t="s" s="71">
         <v>99</v>
       </c>
@@ -5425,11 +5765,21 @@
       <c r="O45" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
+      <c r="P45" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q45" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R45" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S45" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T45" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U45" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5460,11 +5810,21 @@
       <c r="AD45" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AI45" s="36"/>
+      <c r="AE45" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF45" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG45" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH45" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI45" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ45" t="s" s="71">
         <v>99</v>
       </c>
@@ -5531,11 +5891,21 @@
       <c r="O46" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
+      <c r="P46" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q46" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R46" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S46" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T46" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U46" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5566,11 +5936,21 @@
       <c r="AD46" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
+      <c r="AE46" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF46" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG46" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH46" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI46" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ46" t="s" s="71">
         <v>99</v>
       </c>
@@ -5637,11 +6017,21 @@
       <c r="O47" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
+      <c r="P47" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q47" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R47" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S47" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T47" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U47" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5672,11 +6062,21 @@
       <c r="AD47" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
+      <c r="AE47" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF47" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG47" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH47" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI47" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ47" t="s" s="71">
         <v>99</v>
       </c>
@@ -5743,11 +6143,21 @@
       <c r="O48" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
+      <c r="P48" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q48" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R48" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S48" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T48" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U48" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5778,11 +6188,21 @@
       <c r="AD48" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE48" s="36"/>
-      <c r="AF48" s="36"/>
-      <c r="AG48" s="36"/>
-      <c r="AH48" s="36"/>
-      <c r="AI48" s="36"/>
+      <c r="AE48" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF48" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG48" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH48" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI48" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ48" t="s" s="71">
         <v>99</v>
       </c>
@@ -5849,11 +6269,21 @@
       <c r="O49" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
+      <c r="P49" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q49" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R49" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S49" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T49" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U49" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5884,11 +6314,21 @@
       <c r="AD49" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36"/>
-      <c r="AI49" s="36"/>
+      <c r="AE49" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF49" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG49" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH49" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI49" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ49" t="s" s="71">
         <v>99</v>
       </c>
@@ -5955,11 +6395,21 @@
       <c r="O50" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
+      <c r="P50" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q50" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R50" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S50" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T50" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U50" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -5990,11 +6440,21 @@
       <c r="AD50" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE50" s="36"/>
-      <c r="AF50" s="36"/>
-      <c r="AG50" s="36"/>
-      <c r="AH50" s="36"/>
-      <c r="AI50" s="36"/>
+      <c r="AE50" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF50" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG50" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH50" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI50" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ50" t="s" s="71">
         <v>99</v>
       </c>
@@ -6061,11 +6521,21 @@
       <c r="O51" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
+      <c r="P51" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q51" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R51" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S51" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T51" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U51" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -6096,11 +6566,21 @@
       <c r="AD51" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE51" s="36"/>
-      <c r="AF51" s="36"/>
-      <c r="AG51" s="36"/>
-      <c r="AH51" s="36"/>
-      <c r="AI51" s="36"/>
+      <c r="AE51" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF51" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG51" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH51" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI51" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ51" t="s" s="71">
         <v>99</v>
       </c>
@@ -6167,11 +6647,21 @@
       <c r="O52" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
+      <c r="P52" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q52" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R52" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S52" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T52" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U52" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -6202,11 +6692,21 @@
       <c r="AD52" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE52" s="36"/>
-      <c r="AF52" s="36"/>
-      <c r="AG52" s="36"/>
-      <c r="AH52" s="36"/>
-      <c r="AI52" s="36"/>
+      <c r="AE52" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF52" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG52" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH52" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI52" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ52" t="s" s="71">
         <v>99</v>
       </c>
@@ -6273,11 +6773,21 @@
       <c r="O53" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
+      <c r="P53" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q53" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R53" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S53" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T53" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U53" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -6308,11 +6818,21 @@
       <c r="AD53" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE53" s="36"/>
-      <c r="AF53" s="36"/>
-      <c r="AG53" s="36"/>
-      <c r="AH53" s="36"/>
-      <c r="AI53" s="36"/>
+      <c r="AE53" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF53" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG53" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH53" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI53" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ53" t="s" s="71">
         <v>99</v>
       </c>
@@ -6379,11 +6899,21 @@
       <c r="O54" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
+      <c r="P54" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q54" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R54" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S54" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T54" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U54" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -6414,11 +6944,21 @@
       <c r="AD54" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE54" s="36"/>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="36"/>
-      <c r="AH54" s="36"/>
-      <c r="AI54" s="36"/>
+      <c r="AE54" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF54" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG54" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH54" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI54" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ54" t="s" s="71">
         <v>99</v>
       </c>
@@ -6485,11 +7025,21 @@
       <c r="O55" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
+      <c r="P55" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q55" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R55" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S55" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T55" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U55" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -6520,11 +7070,21 @@
       <c r="AD55" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
+      <c r="AE55" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF55" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG55" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH55" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI55" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ55" t="s" s="71">
         <v>99</v>
       </c>
@@ -6591,11 +7151,21 @@
       <c r="O56" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
+      <c r="P56" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q56" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R56" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S56" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T56" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U56" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -6626,11 +7196,21 @@
       <c r="AD56" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE56" s="50"/>
-      <c r="AF56" s="50"/>
-      <c r="AG56" s="50"/>
-      <c r="AH56" s="50"/>
-      <c r="AI56" s="50"/>
+      <c r="AE56" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF56" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG56" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH56" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI56" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ56" t="s" s="71">
         <v>99</v>
       </c>
@@ -6697,11 +7277,21 @@
       <c r="O57" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
+      <c r="P57" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q57" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R57" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S57" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T57" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U57" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -6732,11 +7322,21 @@
       <c r="AD57" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-      <c r="AH57" s="54"/>
-      <c r="AI57" s="54"/>
+      <c r="AE57" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF57" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG57" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH57" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI57" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ57" t="s" s="71">
         <v>99</v>
       </c>
@@ -6803,11 +7403,21 @@
       <c r="O58" t="n" s="70">
         <v>15400.0</v>
       </c>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
+      <c r="P58" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q58" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R58" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S58" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T58" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U58" t="n" s="70">
         <v>15400.0</v>
       </c>
@@ -6838,11 +7448,21 @@
       <c r="AD58" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE58" s="41"/>
-      <c r="AF58" s="41"/>
-      <c r="AG58" s="41"/>
-      <c r="AH58" s="41"/>
-      <c r="AI58" s="41"/>
+      <c r="AE58" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF58" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG58" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH58" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI58" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ58" t="s" s="71">
         <v>99</v>
       </c>
@@ -6909,11 +7529,21 @@
       <c r="O59" t="n" s="70">
         <v>34650.0</v>
       </c>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="41"/>
+      <c r="P59" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q59" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R59" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S59" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T59" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U59" t="n" s="70">
         <v>34650.0</v>
       </c>
@@ -6944,11 +7574,21 @@
       <c r="AD59" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE59" s="41"/>
-      <c r="AF59" s="41"/>
-      <c r="AG59" s="41"/>
-      <c r="AH59" s="41"/>
-      <c r="AI59" s="41"/>
+      <c r="AE59" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF59" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG59" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH59" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI59" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ59" t="s" s="71">
         <v>99</v>
       </c>
@@ -7015,11 +7655,21 @@
       <c r="O60" t="n" s="70">
         <v>34650.0</v>
       </c>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
+      <c r="P60" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="Q60" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="R60" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="S60" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="T60" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="U60" t="n" s="70">
         <v>34650.0</v>
       </c>
@@ -7050,11 +7700,21 @@
       <c r="AD60" t="s" s="71">
         <v>104</v>
       </c>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="41"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="41"/>
-      <c r="AI60" s="41"/>
+      <c r="AE60" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AF60" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AG60" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AH60" t="s" s="71">
+        <v>99</v>
+      </c>
+      <c r="AI60" t="s" s="71">
+        <v>99</v>
+      </c>
       <c r="AJ60" t="s" s="71">
         <v>99</v>
       </c>
@@ -7121,14 +7781,24 @@
       <c r="O61" t="n" s="73">
         <v>546700.0</v>
       </c>
-      <c r="P61" t="n" s="73">
+      <c r="P61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="Q61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="R61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="S61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="T61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="U61" t="n" s="73">
         <v>546700.0</v>
       </c>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
       <c r="V61" t="s" s="72">
         <v>99</v>
       </c>
@@ -7156,11 +7826,21 @@
       <c r="AD61" t="s" s="72">
         <v>99</v>
       </c>
-      <c r="AE61" s="41"/>
-      <c r="AF61" s="41"/>
-      <c r="AG61" s="41"/>
-      <c r="AH61" s="41"/>
-      <c r="AI61" s="41"/>
+      <c r="AE61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="AF61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="AG61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="AH61" t="s" s="72">
+        <v>99</v>
+      </c>
+      <c r="AI61" t="s" s="72">
+        <v>99</v>
+      </c>
       <c r="AJ61" t="s" s="72">
         <v>99</v>
       </c>
